--- a/TSLA.xlsx
+++ b/TSLA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE0B199-3944-4013-A539-9C1CDE2D9C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C725248-0403-4017-9180-94D9706A5370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$28</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$29</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$28:$X$28</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$29:$X$29</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$10</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$9</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$10:$X$10</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$9:$X$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$10:$X$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$9:$X$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$28</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$29</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$28:$X$28</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$29:$X$29</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="235">
   <si>
     <t>Price</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>Net Income</t>
-  </si>
-  <si>
-    <t>EPS</t>
   </si>
   <si>
     <t>Operational Income</t>
@@ -1017,6 +1014,15 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Shares (diluted)</t>
+  </si>
+  <si>
+    <t>EPS (diluted)</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1771,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1924,6 +1930,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1984,21 +1995,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3077,7 +3082,7 @@
                   <c:v>0.18795266504627928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1875936469883062E-2</c:v>
+                  <c:v>3.014270509336292E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4360,7 +4365,7 @@
                   <c:v>0.19440904746734633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.47249783289991332</c:v>
+                  <c:v>-0.42369807294792294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10813,18 +10818,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10868,7 +10873,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10888,8 +10893,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>EPS</cx:v>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>EPS (diluted)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
@@ -10919,18 +10924,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10974,7 +10979,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10994,7 +10999,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17310,8 +17315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17332,50 +17337,50 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="61" t="s">
         <v>50</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>51</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="20">
         <v>45576</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>189</v>
-      </c>
       <c r="H3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I3" s="10">
         <v>31230</v>
@@ -17385,10 +17390,10 @@
         <v>8.9432989690721649E-5</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" t="s">
         <v>168</v>
-      </c>
-      <c r="M3" t="s">
-        <v>169</v>
       </c>
       <c r="N3" s="37"/>
     </row>
@@ -17398,13 +17403,13 @@
         <v>0.37361111111111112</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>191</v>
-      </c>
       <c r="H4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I4" s="10">
         <v>15000</v>
@@ -17414,10 +17419,10 @@
         <v>4.2955326460481103E-5</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" t="s">
         <v>170</v>
-      </c>
-      <c r="M4" t="s">
-        <v>171</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -17425,13 +17430,13 @@
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
       <c r="E5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>193</v>
-      </c>
       <c r="H5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I5" s="10">
         <v>205734</v>
@@ -17441,10 +17446,10 @@
         <v>5.8915807560137455E-4</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" t="s">
         <v>172</v>
-      </c>
-      <c r="M5" t="s">
-        <v>173</v>
       </c>
       <c r="N5" s="13"/>
     </row>
@@ -17453,16 +17458,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>239</v>
+        <v>296.11</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>195</v>
-      </c>
       <c r="H6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I6" s="10">
         <v>50598</v>
@@ -17472,10 +17477,10 @@
         <v>1.4489690721649484E-4</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M6" t="s">
         <v>174</v>
-      </c>
-      <c r="M6" t="s">
-        <v>175</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -17488,13 +17493,13 @@
         <v>3492</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>197</v>
-      </c>
       <c r="H7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I7" s="10">
         <v>193790</v>
@@ -17504,10 +17509,10 @@
         <v>5.5495418098510882E-4</v>
       </c>
       <c r="L7" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7" t="s">
         <v>176</v>
-      </c>
-      <c r="M7" t="s">
-        <v>177</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -17517,16 +17522,16 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>834588</v>
+        <v>1034016.12</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>199</v>
-      </c>
       <c r="H8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I8" s="10">
         <v>41106000</v>
@@ -17536,10 +17541,10 @@
         <v>0.11771477663230241</v>
       </c>
       <c r="L8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M8" t="s">
         <v>178</v>
-      </c>
-      <c r="M8" t="s">
-        <v>179</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -17552,13 +17557,13 @@
         <v>30904</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>201</v>
-      </c>
       <c r="H9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I9" s="10">
         <v>1608720</v>
@@ -17568,10 +17573,10 @@
         <v>4.6068728522336766E-3</v>
       </c>
       <c r="L9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" t="s">
         <v>180</v>
-      </c>
-      <c r="M9" t="s">
-        <v>181</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -17584,13 +17589,13 @@
         <v>7745</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>203</v>
-      </c>
       <c r="H10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I10" s="10">
         <v>10493</v>
@@ -17600,29 +17605,29 @@
         <v>3.0048682703321878E-5</v>
       </c>
       <c r="L10" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M10" t="s">
         <v>182</v>
-      </c>
-      <c r="M10" t="s">
-        <v>183</v>
       </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
         <v>23159</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>205</v>
-      </c>
       <c r="H11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I11" s="10">
         <v>5400</v>
@@ -17632,10 +17637,10 @@
         <v>1.5463917525773197E-5</v>
       </c>
       <c r="L11" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M11" t="s">
         <v>184</v>
-      </c>
-      <c r="M11" t="s">
-        <v>185</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -17645,16 +17650,16 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>811429</v>
+        <v>1010857.12</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>207</v>
-      </c>
       <c r="H12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I12">
         <v>63171</v>
@@ -17664,20 +17669,20 @@
         <v>1.8090206185567009E-4</v>
       </c>
       <c r="L12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M12" t="s">
         <v>186</v>
-      </c>
-      <c r="M12" t="s">
-        <v>187</v>
       </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="36">
         <f>C6/Model!G28</f>
-        <v>55.538774421550976</v>
+        <v>68.809985330399414</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -17686,11 +17691,11 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="36">
         <f>C6/Model!H29</f>
-        <v>105.2863436123348</v>
+        <v>119.3991935483871</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -17704,96 +17709,96 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="36">
         <f>C6/Model!I29</f>
-        <v>77.850162866449509</v>
+        <v>91.391975308641975</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="6">
         <f>Model!H29/Model!G28-1</f>
-        <v>-0.47249783289991332</v>
+        <v>-0.42369807294792294</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="6">
         <f>Model!I29/Model!H29-1</f>
-        <v>0.35242290748898664</v>
+        <v>0.30645161290322598</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="130"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="132"/>
+        <v>55</v>
+      </c>
+      <c r="L17" s="133"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="135"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="51">
         <f>C14/(C16*100)</f>
-        <v>-2.2282926244581747</v>
-      </c>
-      <c r="L18" s="133"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="135"/>
+        <v>-2.8180254094066308</v>
+      </c>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="51">
         <f>C15/(C17*100)</f>
-        <v>2.2089983713355057</v>
-      </c>
-      <c r="L19" s="133"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="135"/>
+        <v>2.9822644574398942</v>
+      </c>
+      <c r="L19" s="136"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="138"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="6">
         <f>Model!H10/Model!G9-1</f>
-        <v>2.1875936469883062E-2</v>
-      </c>
-      <c r="L20" s="133"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="135"/>
+        <v>3.014270509336292E-2</v>
+      </c>
+      <c r="L20" s="136"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="138"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="6">
         <f>Model!I10/Model!H10-1</f>
-        <v>0.15673981191222564</v>
-      </c>
-      <c r="L21" s="133"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="135"/>
+        <v>0.15979536563346364</v>
+      </c>
+      <c r="L21" s="136"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="138"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="15">
         <f>Model!G20</f>
         <v>8891</v>
       </c>
-      <c r="L22" s="133"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="135"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="138"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -17803,76 +17808,76 @@
         <f>Model!G23</f>
         <v>9973</v>
       </c>
-      <c r="L23" s="133"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="135"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="138"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <f>Model!G30</f>
         <v>0.18248891736331418</v>
       </c>
-      <c r="L24" s="133"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="135"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="138"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="7">
         <f>Model!G31</f>
         <v>0.15497091130790613</v>
       </c>
-      <c r="L25" s="133"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="135"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="138"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>81.362578963200647</v>
-      </c>
-      <c r="L26" s="133"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="135"/>
+        <v>101.3593823322972</v>
+      </c>
+      <c r="L26" s="136"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="138"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="121">
         <f>(Model!Y65+Model!Y67)/Model!Y71</f>
         <v>0.11514502772698214</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="133"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="135"/>
+        <v>74</v>
+      </c>
+      <c r="L27" s="136"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="138"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="36">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="L28" s="136"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="138"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="141"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="36">
         <f>Model!Y50/Model!Y66</f>
@@ -17881,7 +17886,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="36">
         <f>(Model!Y45+Model!Y46+Model!Y47)/Model!Y66</f>
@@ -17890,7 +17895,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="6">
         <f>(Model!Y50-Model!Y66)/Model!Y60</f>
@@ -17899,7 +17904,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="36">
         <f>(Model!Y60-Model!Y70)/Main!C7</f>
@@ -17908,7 +17913,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="36">
         <f>Model!Y9/Model!Y60</f>
@@ -17917,7 +17922,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="38">
         <f>Model!G26/Model!G60</f>
@@ -17926,7 +17931,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="38">
         <f>Model!G26/Model!G71</f>
@@ -17935,7 +17940,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="23"/>
     </row>
@@ -17964,13 +17969,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AA92"/>
+  <dimension ref="A1:AB92"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
+      <selection pane="bottomRight" activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17978,18 +17983,18 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="24" max="24" width="11.42578125" style="149"/>
-    <col min="25" max="25" width="11.42578125" style="13"/>
+    <col min="25" max="25" width="11.42578125" style="152"/>
+    <col min="26" max="26" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -18004,13 +18009,13 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
         <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
@@ -18037,30 +18042,33 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="149" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="X2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA2" t="s">
         <v>231</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="10">
         <v>19358</v>
@@ -18116,18 +18124,21 @@
         <f>G3-V3-U3-T3</f>
         <v>20630</v>
       </c>
-      <c r="X3" s="150">
+      <c r="X3" s="10">
         <v>16460</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Y3" s="153">
         <v>18530</v>
       </c>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z3" s="15">
+        <v>18831</v>
+      </c>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="10">
         <v>594</v>
@@ -18183,18 +18194,21 @@
         <f t="shared" ref="W4:W5" si="2">G4-V4-U4-T4</f>
         <v>433</v>
       </c>
-      <c r="X4" s="150">
+      <c r="X4" s="10">
         <v>442</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Y4" s="153">
         <v>890</v>
       </c>
-      <c r="Z4" s="150"/>
-      <c r="AA4" s="150"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z4" s="15">
+        <v>739</v>
+      </c>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="10">
         <v>869</v>
@@ -18250,18 +18264,21 @@
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="X5" s="150">
+      <c r="X5" s="10">
         <v>476</v>
       </c>
-      <c r="Y5" s="15">
+      <c r="Y5" s="153">
         <v>458</v>
       </c>
-      <c r="Z5" s="150"/>
-      <c r="AA5" s="150"/>
-    </row>
-    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="15">
+        <v>446</v>
+      </c>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+    </row>
+    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="11">
         <f>SUM(C3:C5)</f>
@@ -18331,26 +18348,30 @@
         <f t="shared" ref="W6" si="14">SUM(W3:W5)</f>
         <v>21563</v>
       </c>
-      <c r="X6" s="151">
+      <c r="X6" s="11">
         <f t="shared" ref="X6" si="15">SUM(X3:X5)</f>
         <v>17378</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="154">
         <f t="shared" ref="Y6:AA6" si="16">SUM(Y3:Y5)</f>
         <v>19878</v>
       </c>
-      <c r="Z6" s="151">
+      <c r="Z6" s="14">
+        <f t="shared" si="16"/>
+        <v>20016</v>
+      </c>
+      <c r="AA6" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="151">
-        <f t="shared" si="16"/>
+      <c r="AB6" s="11">
+        <f t="shared" ref="AB6" si="17">SUM(AB3:AB5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="10">
         <v>1531</v>
@@ -18377,7 +18398,7 @@
         <v>806</v>
       </c>
       <c r="O7" s="10">
-        <f t="shared" ref="O7:O8" si="17">E7-N7-M7-L7</f>
+        <f t="shared" ref="O7:O8" si="18">E7-N7-M7-L7</f>
         <v>688</v>
       </c>
       <c r="P7" s="10">
@@ -18390,7 +18411,7 @@
         <v>1117</v>
       </c>
       <c r="S7" s="10">
-        <f t="shared" ref="S7:S8" si="18">F7-R7-Q7-P7</f>
+        <f t="shared" ref="S7:S8" si="19">F7-R7-Q7-P7</f>
         <v>1310</v>
       </c>
       <c r="T7" s="10">
@@ -18403,21 +18424,24 @@
         <v>1559</v>
       </c>
       <c r="W7" s="10">
-        <f t="shared" ref="W7:W8" si="19">G7-V7-U7-T7</f>
+        <f t="shared" ref="W7:W8" si="20">G7-V7-U7-T7</f>
         <v>1438</v>
       </c>
-      <c r="X7" s="150">
+      <c r="X7" s="10">
         <v>1635</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Y7" s="153">
         <v>3014</v>
       </c>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z7" s="15">
+        <v>2376</v>
+      </c>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="10">
         <v>2226</v>
@@ -18444,7 +18468,7 @@
         <v>894</v>
       </c>
       <c r="O8" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1064</v>
       </c>
       <c r="P8" s="10">
@@ -18457,7 +18481,7 @@
         <v>1645</v>
       </c>
       <c r="S8" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1701</v>
       </c>
       <c r="T8" s="10">
@@ -18470,19 +18494,22 @@
         <v>2166</v>
       </c>
       <c r="W8" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2166</v>
       </c>
-      <c r="X8" s="150">
+      <c r="X8" s="10">
         <v>2288</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Y8" s="153">
         <v>2608</v>
       </c>
-      <c r="Z8" s="150"/>
-      <c r="AA8" s="150"/>
-    </row>
-    <row r="9" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z8" s="15">
+        <v>2790</v>
+      </c>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+    </row>
+    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
@@ -18491,91 +18518,95 @@
         <v>24578</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" ref="D9:G9" si="20">SUM(D6:D8)</f>
+        <f t="shared" ref="D9:G9" si="21">SUM(D6:D8)</f>
         <v>31536</v>
       </c>
       <c r="E9" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>53823</v>
       </c>
       <c r="F9" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>81462</v>
       </c>
       <c r="G9" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>96773</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
       <c r="L9" s="11">
-        <f t="shared" ref="L9" si="21">SUM(L6:L8)</f>
+        <f t="shared" ref="L9" si="22">SUM(L6:L8)</f>
         <v>10389</v>
       </c>
       <c r="M9" s="11">
-        <f t="shared" ref="M9" si="22">SUM(M6:M8)</f>
+        <f t="shared" ref="M9" si="23">SUM(M6:M8)</f>
         <v>11958</v>
       </c>
       <c r="N9" s="11">
-        <f t="shared" ref="N9" si="23">SUM(N6:N8)</f>
+        <f t="shared" ref="N9" si="24">SUM(N6:N8)</f>
         <v>13757</v>
       </c>
       <c r="O9" s="11">
-        <f t="shared" ref="O9" si="24">SUM(O6:O8)</f>
+        <f t="shared" ref="O9" si="25">SUM(O6:O8)</f>
         <v>17719</v>
       </c>
       <c r="P9" s="11">
-        <f t="shared" ref="P9" si="25">SUM(P6:P8)</f>
+        <f t="shared" ref="P9" si="26">SUM(P6:P8)</f>
         <v>18756</v>
       </c>
       <c r="Q9" s="11">
-        <f t="shared" ref="Q9" si="26">SUM(Q6:Q8)</f>
+        <f t="shared" ref="Q9" si="27">SUM(Q6:Q8)</f>
         <v>16934</v>
       </c>
       <c r="R9" s="11">
-        <f t="shared" ref="R9" si="27">SUM(R6:R8)</f>
+        <f t="shared" ref="R9" si="28">SUM(R6:R8)</f>
         <v>21454</v>
       </c>
       <c r="S9" s="11">
-        <f t="shared" ref="S9" si="28">SUM(S6:S8)</f>
+        <f t="shared" ref="S9" si="29">SUM(S6:S8)</f>
         <v>24318</v>
       </c>
       <c r="T9" s="11">
-        <f t="shared" ref="T9" si="29">SUM(T6:T8)</f>
+        <f t="shared" ref="T9" si="30">SUM(T6:T8)</f>
         <v>23329</v>
       </c>
       <c r="U9" s="11">
-        <f t="shared" ref="U9" si="30">SUM(U6:U8)</f>
+        <f t="shared" ref="U9" si="31">SUM(U6:U8)</f>
         <v>24927</v>
       </c>
       <c r="V9" s="11">
-        <f t="shared" ref="V9" si="31">SUM(V6:V8)</f>
+        <f t="shared" ref="V9" si="32">SUM(V6:V8)</f>
         <v>23350</v>
       </c>
       <c r="W9" s="11">
-        <f t="shared" ref="W9" si="32">SUM(W6:W8)</f>
+        <f t="shared" ref="W9" si="33">SUM(W6:W8)</f>
         <v>25167</v>
       </c>
-      <c r="X9" s="151">
-        <f t="shared" ref="X9" si="33">SUM(X6:X8)</f>
+      <c r="X9" s="11">
+        <f t="shared" ref="X9" si="34">SUM(X6:X8)</f>
         <v>21301</v>
       </c>
-      <c r="Y9" s="14">
-        <f t="shared" ref="Y9:AA9" si="34">SUM(Y6:Y8)</f>
+      <c r="Y9" s="154">
+        <f t="shared" ref="Y9:AA9" si="35">SUM(Y6:Y8)</f>
         <v>25500</v>
       </c>
-      <c r="Z9" s="151">
-        <f t="shared" si="34"/>
+      <c r="Z9" s="14">
+        <f t="shared" si="35"/>
+        <v>25182</v>
+      </c>
+      <c r="AA9" s="11">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="151">
-        <f t="shared" si="34"/>
+      <c r="AB9" s="11">
+        <f t="shared" ref="AB9" si="36">SUM(AB6:AB8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -18583,10 +18614,10 @@
       <c r="F10" s="10"/>
       <c r="G10" s="15"/>
       <c r="H10" s="42">
-        <v>98890</v>
+        <v>99690</v>
       </c>
       <c r="I10" s="42">
-        <v>114390</v>
+        <v>115620</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -18600,22 +18631,25 @@
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
-      <c r="X10" s="161">
+      <c r="X10" s="132">
         <v>22340</v>
       </c>
-      <c r="Y10" s="162">
+      <c r="Y10" s="155">
         <v>25260</v>
       </c>
-      <c r="Z10" s="150">
+      <c r="Z10" s="132">
         <v>25340</v>
       </c>
-      <c r="AA10" s="150">
-        <v>26880</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA10" s="10">
+        <v>27370</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>26070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="10">
         <v>15939</v>
@@ -18644,7 +18678,7 @@
         <v>8150</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O12" si="35">E11-N11-M11-L11</f>
+        <f t="shared" ref="O11:O12" si="37">E11-N11-M11-L11</f>
         <v>10689</v>
       </c>
       <c r="P11" s="10">
@@ -18657,7 +18691,7 @@
         <v>13099</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S12" si="36">F11-R11-Q11-P11</f>
+        <f t="shared" ref="S11:S12" si="38">F11-R11-Q11-P11</f>
         <v>15433</v>
       </c>
       <c r="T11" s="10">
@@ -18670,21 +18704,24 @@
         <v>15656</v>
       </c>
       <c r="W11" s="10">
-        <f t="shared" ref="W11:W12" si="37">G11-V11-U11-T11</f>
+        <f t="shared" ref="W11:W12" si="39">G11-V11-U11-T11</f>
         <v>17202</v>
       </c>
-      <c r="X11" s="150">
+      <c r="X11" s="10">
         <v>13897</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Y11" s="153">
         <v>15962</v>
       </c>
-      <c r="Z11" s="150"/>
-      <c r="AA11" s="150"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z11" s="15">
+        <v>15743</v>
+      </c>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="10">
         <v>459</v>
@@ -18713,7 +18750,7 @@
         <v>234</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>396</v>
       </c>
       <c r="P12" s="10">
@@ -18726,7 +18763,7 @@
         <v>381</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>352</v>
       </c>
       <c r="T12" s="10">
@@ -18739,112 +18776,119 @@
         <v>301</v>
       </c>
       <c r="W12" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>296</v>
       </c>
-      <c r="X12" s="150">
+      <c r="X12" s="10">
         <v>269</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="Y12" s="153">
         <v>245</v>
       </c>
-      <c r="Z12" s="150"/>
-      <c r="AA12" s="150"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z12" s="15">
+        <v>247</v>
+      </c>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="11">
         <f>SUM(C11:C12)</f>
         <v>16398</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" ref="D13:G13" si="38">SUM(D11:D12)</f>
+        <f t="shared" ref="D13:G13" si="40">SUM(D11:D12)</f>
         <v>20259</v>
       </c>
       <c r="E13" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>33393</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>51108</v>
       </c>
       <c r="G13" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>66389</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="L13" s="11">
-        <f t="shared" ref="L13" si="39">SUM(L11:L12)</f>
+        <f t="shared" ref="L13" si="41">SUM(L11:L12)</f>
         <v>6617</v>
       </c>
       <c r="M13" s="11">
-        <f t="shared" ref="M13" si="40">SUM(M11:M12)</f>
+        <f t="shared" ref="M13" si="42">SUM(M11:M12)</f>
         <v>7307</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" ref="N13" si="41">SUM(N11:N12)</f>
+        <f t="shared" ref="N13" si="43">SUM(N11:N12)</f>
         <v>8384</v>
       </c>
       <c r="O13" s="11">
-        <f t="shared" ref="O13" si="42">SUM(O11:O12)</f>
+        <f t="shared" ref="O13" si="44">SUM(O11:O12)</f>
         <v>11085</v>
       </c>
       <c r="P13" s="11">
-        <f t="shared" ref="P13" si="43">SUM(P11:P12)</f>
+        <f t="shared" ref="P13" si="45">SUM(P11:P12)</f>
         <v>11322</v>
       </c>
       <c r="Q13" s="11">
-        <f t="shared" ref="Q13" si="44">SUM(Q11:Q12)</f>
+        <f t="shared" ref="Q13" si="46">SUM(Q11:Q12)</f>
         <v>10521</v>
       </c>
       <c r="R13" s="11">
-        <f t="shared" ref="R13" si="45">SUM(R11:R12)</f>
+        <f t="shared" ref="R13" si="47">SUM(R11:R12)</f>
         <v>13480</v>
       </c>
       <c r="S13" s="11">
-        <f t="shared" ref="S13" si="46">SUM(S11:S12)</f>
+        <f t="shared" ref="S13" si="48">SUM(S11:S12)</f>
         <v>15785</v>
       </c>
       <c r="T13" s="11">
-        <f t="shared" ref="T13" si="47">SUM(T11:T12)</f>
+        <f t="shared" ref="T13" si="49">SUM(T11:T12)</f>
         <v>15755</v>
       </c>
       <c r="U13" s="11">
-        <f t="shared" ref="U13" si="48">SUM(U11:U12)</f>
+        <f t="shared" ref="U13" si="50">SUM(U11:U12)</f>
         <v>17179</v>
       </c>
       <c r="V13" s="11">
-        <f t="shared" ref="V13:W13" si="49">SUM(V11:V12)</f>
+        <f t="shared" ref="V13:W13" si="51">SUM(V11:V12)</f>
         <v>15957</v>
       </c>
       <c r="W13" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>17498</v>
       </c>
-      <c r="X13" s="151">
-        <f t="shared" ref="X13" si="50">SUM(X11:X12)</f>
+      <c r="X13" s="11">
+        <f t="shared" ref="X13" si="52">SUM(X11:X12)</f>
         <v>14166</v>
       </c>
-      <c r="Y13" s="14">
-        <f t="shared" ref="Y13:AA13" si="51">SUM(Y11:Y12)</f>
+      <c r="Y13" s="154">
+        <f t="shared" ref="Y13:AA13" si="53">SUM(Y11:Y12)</f>
         <v>16207</v>
       </c>
-      <c r="Z13" s="151">
-        <f t="shared" si="51"/>
+      <c r="Z13" s="14">
+        <f t="shared" si="53"/>
+        <v>15990</v>
+      </c>
+      <c r="AA13" s="11">
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="151">
-        <f t="shared" si="51"/>
+      <c r="AB13" s="11">
+        <f t="shared" ref="AB13" si="54">SUM(AB11:AB12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="10">
         <v>1341</v>
@@ -18886,7 +18930,7 @@
         <v>1013</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" ref="S14:S15" si="52">F14-R14-Q14-P14</f>
+        <f t="shared" ref="S14:S15" si="55">F14-R14-Q14-P14</f>
         <v>1151</v>
       </c>
       <c r="T14" s="10">
@@ -18899,21 +18943,24 @@
         <v>1178</v>
       </c>
       <c r="W14" s="10">
-        <f t="shared" ref="W14:W15" si="53">G14-V14-U14-T14</f>
+        <f t="shared" ref="W14:W15" si="56">G14-V14-U14-T14</f>
         <v>1124</v>
       </c>
-      <c r="X14" s="150">
+      <c r="X14" s="10">
         <v>1232</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Y14" s="153">
         <v>2274</v>
       </c>
-      <c r="Z14" s="150"/>
-      <c r="AA14" s="150"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z14" s="15">
+        <v>1651</v>
+      </c>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="10">
         <v>2770</v>
@@ -18955,7 +19002,7 @@
         <v>1579</v>
       </c>
       <c r="S15" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1605</v>
       </c>
       <c r="T15" s="10">
@@ -18968,118 +19015,125 @@
         <v>2037</v>
       </c>
       <c r="W15" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>2107</v>
       </c>
-      <c r="X15" s="150">
+      <c r="X15" s="10">
         <v>2207</v>
       </c>
-      <c r="Y15" s="15">
+      <c r="Y15" s="153">
         <v>2441</v>
       </c>
-      <c r="Z15" s="150"/>
-      <c r="AA15" s="150"/>
-    </row>
-    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z15" s="15">
+        <v>2544</v>
+      </c>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+    </row>
+    <row r="16" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="11">
         <f>SUM(C13:C15)</f>
         <v>20509</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" ref="D16:I16" si="54">SUM(D13:D15)</f>
+        <f t="shared" ref="D16:I16" si="57">SUM(D13:D15)</f>
         <v>24906</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>40217</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>60609</v>
       </c>
       <c r="G16" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>79113</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="L16" s="11">
-        <f t="shared" ref="L16" si="55">SUM(L13:L15)</f>
+        <f t="shared" ref="L16" si="58">SUM(L13:L15)</f>
         <v>8174</v>
       </c>
       <c r="M16" s="11">
-        <f t="shared" ref="M16" si="56">SUM(M13:M15)</f>
+        <f t="shared" ref="M16" si="59">SUM(M13:M15)</f>
         <v>9074</v>
       </c>
       <c r="N16" s="11">
-        <f t="shared" ref="N16" si="57">SUM(N13:N15)</f>
+        <f t="shared" ref="N16" si="60">SUM(N13:N15)</f>
         <v>10097</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" ref="O16" si="58">SUM(O13:O15)</f>
+        <f t="shared" ref="O16" si="61">SUM(O13:O15)</f>
         <v>12872</v>
       </c>
       <c r="P16" s="11">
-        <f t="shared" ref="P16" si="59">SUM(P13:P15)</f>
+        <f t="shared" ref="P16" si="62">SUM(P13:P15)</f>
         <v>13296</v>
       </c>
       <c r="Q16" s="11">
-        <f t="shared" ref="Q16" si="60">SUM(Q13:Q15)</f>
+        <f t="shared" ref="Q16" si="63">SUM(Q13:Q15)</f>
         <v>12700</v>
       </c>
       <c r="R16" s="11">
-        <f t="shared" ref="R16" si="61">SUM(R13:R15)</f>
+        <f t="shared" ref="R16" si="64">SUM(R13:R15)</f>
         <v>16072</v>
       </c>
       <c r="S16" s="11">
-        <f t="shared" ref="S16" si="62">SUM(S13:S15)</f>
+        <f t="shared" ref="S16" si="65">SUM(S13:S15)</f>
         <v>18541</v>
       </c>
       <c r="T16" s="11">
-        <f t="shared" ref="T16" si="63">SUM(T13:T15)</f>
+        <f t="shared" ref="T16" si="66">SUM(T13:T15)</f>
         <v>18818</v>
       </c>
       <c r="U16" s="11">
-        <f t="shared" ref="U16" si="64">SUM(U13:U15)</f>
+        <f t="shared" ref="U16" si="67">SUM(U13:U15)</f>
         <v>20394</v>
       </c>
       <c r="V16" s="11">
-        <f t="shared" ref="V16:W16" si="65">SUM(V13:V15)</f>
+        <f t="shared" ref="V16:W16" si="68">SUM(V13:V15)</f>
         <v>19172</v>
       </c>
       <c r="W16" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>20729</v>
       </c>
-      <c r="X16" s="151">
-        <f t="shared" ref="X16" si="66">SUM(X13:X15)</f>
+      <c r="X16" s="11">
+        <f t="shared" ref="X16" si="69">SUM(X13:X15)</f>
         <v>17605</v>
       </c>
-      <c r="Y16" s="14">
-        <f t="shared" ref="Y16:AA16" si="67">SUM(Y13:Y15)</f>
+      <c r="Y16" s="154">
+        <f t="shared" ref="Y16:AA16" si="70">SUM(Y13:Y15)</f>
         <v>20922</v>
       </c>
-      <c r="Z16" s="151">
-        <f t="shared" si="67"/>
+      <c r="Z16" s="14">
+        <f t="shared" si="70"/>
+        <v>20185</v>
+      </c>
+      <c r="AA16" s="11">
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="151">
-        <f t="shared" si="67"/>
+      <c r="AB16" s="11">
+        <f t="shared" ref="AB16" si="71">SUM(AB13:AB15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="10">
         <v>1343</v>
@@ -19108,7 +19162,7 @@
         <v>611</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" ref="O17:O19" si="68">E17-N17-M17-L17</f>
+        <f t="shared" ref="O17:O19" si="72">E17-N17-M17-L17</f>
         <v>740</v>
       </c>
       <c r="P17" s="10">
@@ -19121,7 +19175,7 @@
         <v>733</v>
       </c>
       <c r="S17" s="10">
-        <f t="shared" ref="S17:S19" si="69">F17-R17-Q17-P17</f>
+        <f t="shared" ref="S17:S19" si="73">F17-R17-Q17-P17</f>
         <v>810</v>
       </c>
       <c r="T17" s="10">
@@ -19134,21 +19188,24 @@
         <v>1161</v>
       </c>
       <c r="W17" s="10">
-        <f t="shared" ref="W17:W19" si="70">G17-V17-U17-T17</f>
+        <f t="shared" ref="W17:W19" si="74">G17-V17-U17-T17</f>
         <v>1094</v>
       </c>
-      <c r="X17" s="150">
+      <c r="X17" s="10">
         <v>1151</v>
       </c>
-      <c r="Y17" s="15">
+      <c r="Y17" s="153">
         <v>1074</v>
       </c>
-      <c r="Z17" s="150"/>
-      <c r="AA17" s="150"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z17" s="15">
+        <v>1039</v>
+      </c>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="10">
         <v>2646</v>
@@ -19177,7 +19234,7 @@
         <v>994</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1494</v>
       </c>
       <c r="P18" s="10">
@@ -19190,7 +19247,7 @@
         <v>961</v>
       </c>
       <c r="S18" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>1032</v>
       </c>
       <c r="T18" s="10">
@@ -19203,21 +19260,24 @@
         <v>1263</v>
       </c>
       <c r="W18" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>1270</v>
       </c>
-      <c r="X18" s="150">
+      <c r="X18" s="10">
         <v>1374</v>
       </c>
-      <c r="Y18" s="15">
+      <c r="Y18" s="153">
         <v>1277</v>
       </c>
-      <c r="Z18" s="150"/>
-      <c r="AA18" s="150"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z18" s="15">
+        <v>1186</v>
+      </c>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="10">
         <v>149</v>
@@ -19246,7 +19306,7 @@
         <v>51</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="P19" s="10">
@@ -19259,7 +19319,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>34</v>
       </c>
       <c r="T19" s="10">
@@ -19272,120 +19332,127 @@
         <v>0</v>
       </c>
       <c r="W19" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="X19" s="150">
+      <c r="X19" s="10">
         <v>0</v>
       </c>
-      <c r="Y19" s="15">
+      <c r="Y19" s="153">
         <v>662</v>
       </c>
-      <c r="Z19" s="150"/>
-      <c r="AA19" s="150"/>
-    </row>
-    <row r="20" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z19" s="15">
+        <v>55</v>
+      </c>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+    </row>
+    <row r="20" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" ref="C20:I20" si="71">C9-SUM(C16:C19)</f>
+        <f t="shared" ref="C20:I20" si="75">C9-SUM(C16:C19)</f>
         <v>-69</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>1994</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>6523</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>13656</v>
       </c>
       <c r="G20" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>8891</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11">
-        <f t="shared" ref="L20:AA20" si="72">L9-SUM(L16:L19)</f>
+        <f t="shared" ref="L20:AA20" si="76">L9-SUM(L16:L19)</f>
         <v>594</v>
       </c>
       <c r="M20" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1312</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>2004</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>2613</v>
       </c>
       <c r="P20" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>3603</v>
       </c>
       <c r="Q20" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>2464</v>
       </c>
       <c r="R20" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>3688</v>
       </c>
       <c r="S20" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>3901</v>
       </c>
       <c r="T20" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>2664</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>2399</v>
       </c>
       <c r="V20" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1754</v>
       </c>
       <c r="W20" s="11">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>2074</v>
       </c>
-      <c r="X20" s="151">
-        <f t="shared" si="72"/>
+      <c r="X20" s="11">
+        <f t="shared" si="76"/>
         <v>1171</v>
       </c>
-      <c r="Y20" s="14">
-        <f t="shared" si="72"/>
+      <c r="Y20" s="154">
+        <f t="shared" si="76"/>
         <v>1565</v>
       </c>
-      <c r="Z20" s="151">
-        <f t="shared" si="72"/>
+      <c r="Z20" s="14">
+        <f t="shared" si="76"/>
+        <v>2717</v>
+      </c>
+      <c r="AA20" s="11">
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="151">
-        <f t="shared" si="72"/>
+      <c r="AB20" s="11">
+        <f t="shared" ref="AB20" si="77">AB9-SUM(AB16:AB19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C21" s="10">
         <f>44-685</f>
@@ -19422,7 +19489,7 @@
         <v>-116</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" ref="O21:O22" si="73">E21-N21-M21-L21</f>
+        <f t="shared" ref="O21:O22" si="78">E21-N21-M21-L21</f>
         <v>-46</v>
       </c>
       <c r="P21" s="10">
@@ -19438,7 +19505,7 @@
         <v>23</v>
       </c>
       <c r="S21" s="10">
-        <f t="shared" ref="S21:S22" si="74">F21-R21-Q21-P21</f>
+        <f t="shared" ref="S21:S22" si="79">F21-R21-Q21-P21</f>
         <v>134</v>
       </c>
       <c r="T21" s="10">
@@ -19454,23 +19521,25 @@
         <v>244</v>
       </c>
       <c r="W21" s="10">
-        <f t="shared" ref="W21:W22" si="75">G21-V21-U21-T21</f>
+        <f t="shared" ref="W21:W22" si="80">G21-V21-U21-T21</f>
         <v>272</v>
       </c>
-      <c r="X21" s="149">
+      <c r="X21">
         <f>350-76</f>
         <v>274</v>
       </c>
-      <c r="Y21" s="13">
+      <c r="Y21" s="152">
         <f>348-86</f>
         <v>262</v>
       </c>
-      <c r="Z21" s="149"/>
-      <c r="AA21" s="149"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z21" s="13">
+        <f>429-92</f>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22" s="10">
         <v>45</v>
@@ -19499,7 +19568,7 @@
         <v>-6</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>68</v>
       </c>
       <c r="P22" s="10">
@@ -19512,7 +19581,7 @@
         <v>-85</v>
       </c>
       <c r="S22" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>-42</v>
       </c>
       <c r="T22" s="10">
@@ -19525,116 +19594,123 @@
         <v>37</v>
       </c>
       <c r="W22" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>-145</v>
       </c>
-      <c r="X22" s="150">
+      <c r="X22" s="10">
         <v>108</v>
       </c>
-      <c r="Y22" s="15">
+      <c r="Y22" s="153">
         <v>20</v>
       </c>
-      <c r="Z22" s="150"/>
-      <c r="AA22" s="150"/>
-    </row>
-    <row r="23" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z22" s="15">
+        <v>-270</v>
+      </c>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+    </row>
+    <row r="23" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" ref="C23:I23" si="76">C20+SUM(C21:C22)</f>
+        <f t="shared" ref="C23:I23" si="81">C20+SUM(C21:C22)</f>
         <v>-665</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>1154</v>
       </c>
       <c r="E23" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>6343</v>
       </c>
       <c r="F23" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>13719</v>
       </c>
       <c r="G23" s="14">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>9973</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="L23" s="11">
-        <f t="shared" ref="L23:AA23" si="77">L20+SUM(L21:L22)</f>
+        <f t="shared" ref="L23:AA23" si="82">L20+SUM(L21:L22)</f>
         <v>533</v>
       </c>
       <c r="M23" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>1293</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>1882</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>2635</v>
       </c>
       <c r="P23" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>3626</v>
       </c>
       <c r="Q23" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>2474</v>
       </c>
       <c r="R23" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>3626</v>
       </c>
       <c r="S23" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>3993</v>
       </c>
       <c r="T23" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>2800</v>
       </c>
       <c r="U23" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>2937</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>2035</v>
       </c>
       <c r="W23" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="82"/>
         <v>2201</v>
       </c>
-      <c r="X23" s="151">
-        <f t="shared" si="77"/>
+      <c r="X23" s="11">
+        <f t="shared" si="82"/>
         <v>1553</v>
       </c>
-      <c r="Y23" s="14">
-        <f t="shared" si="77"/>
+      <c r="Y23" s="154">
+        <f t="shared" si="82"/>
         <v>1847</v>
       </c>
-      <c r="Z23" s="151">
-        <f t="shared" si="77"/>
+      <c r="Z23" s="14">
+        <f t="shared" si="82"/>
+        <v>2784</v>
+      </c>
+      <c r="AA23" s="11">
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="151">
-        <f t="shared" si="77"/>
+      <c r="AB23" s="11">
+        <f t="shared" ref="AB23" si="83">AB20+SUM(AB21:AB22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -19665,7 +19741,7 @@
         <v>223</v>
       </c>
       <c r="O24" s="10">
-        <f t="shared" ref="O24:O25" si="78">E24-N24-M24-L24</f>
+        <f t="shared" ref="O24:O25" si="84">E24-N24-M24-L24</f>
         <v>292</v>
       </c>
       <c r="P24" s="10">
@@ -19678,7 +19754,7 @@
         <v>305</v>
       </c>
       <c r="S24" s="10">
-        <f t="shared" ref="S24:S25" si="79">F24-R24-Q24-P24</f>
+        <f t="shared" ref="S24:S25" si="85">F24-R24-Q24-P24</f>
         <v>276</v>
       </c>
       <c r="T24" s="10">
@@ -19691,21 +19767,24 @@
         <v>167</v>
       </c>
       <c r="W24" s="10">
-        <f t="shared" ref="W24:W25" si="80">G24-V24-U24-T24</f>
+        <f t="shared" ref="W24:W25" si="86">G24-V24-U24-T24</f>
         <v>-5752</v>
       </c>
-      <c r="X24" s="150">
+      <c r="X24" s="10">
         <v>409</v>
       </c>
-      <c r="Y24" s="15">
+      <c r="Y24" s="153">
         <v>393</v>
       </c>
-      <c r="Z24" s="150"/>
-      <c r="AA24" s="150"/>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z24" s="15">
+        <v>601</v>
+      </c>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="10">
         <v>87</v>
@@ -19734,7 +19813,7 @@
         <v>41</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>22</v>
       </c>
       <c r="P25" s="10">
@@ -19747,7 +19826,7 @@
         <v>39</v>
       </c>
       <c r="S25" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>20</v>
       </c>
       <c r="T25" s="10">
@@ -19760,19 +19839,22 @@
         <v>25</v>
       </c>
       <c r="W25" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>15</v>
       </c>
-      <c r="X25" s="150">
+      <c r="X25" s="10">
         <v>15</v>
       </c>
-      <c r="Y25" s="15">
+      <c r="Y25" s="153">
         <v>16</v>
       </c>
-      <c r="Z25" s="150"/>
-      <c r="AA25" s="150"/>
-    </row>
-    <row r="26" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z25" s="15">
+        <v>16</v>
+      </c>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
@@ -19781,91 +19863,95 @@
         <v>-862</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" ref="D26:G26" si="81">D23-SUM(D24:D25)</f>
+        <f t="shared" ref="D26:G26" si="87">D23-SUM(D24:D25)</f>
         <v>721</v>
       </c>
       <c r="E26" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>5519</v>
       </c>
       <c r="F26" s="11">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>12556</v>
       </c>
       <c r="G26" s="14">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>14997</v>
       </c>
       <c r="H26" s="58"/>
       <c r="I26" s="58"/>
       <c r="L26" s="11">
-        <f t="shared" ref="L26" si="82">L23-SUM(L24:L25)</f>
+        <f t="shared" ref="L26" si="88">L23-SUM(L24:L25)</f>
         <v>438</v>
       </c>
       <c r="M26" s="11">
-        <f t="shared" ref="M26" si="83">M23-SUM(M24:M25)</f>
+        <f t="shared" ref="M26" si="89">M23-SUM(M24:M25)</f>
         <v>1142</v>
       </c>
       <c r="N26" s="11">
-        <f t="shared" ref="N26" si="84">N23-SUM(N24:N25)</f>
+        <f t="shared" ref="N26" si="90">N23-SUM(N24:N25)</f>
         <v>1618</v>
       </c>
       <c r="O26" s="11">
-        <f t="shared" ref="O26" si="85">O23-SUM(O24:O25)</f>
+        <f t="shared" ref="O26" si="91">O23-SUM(O24:O25)</f>
         <v>2321</v>
       </c>
       <c r="P26" s="11">
-        <f t="shared" ref="P26" si="86">P23-SUM(P24:P25)</f>
+        <f t="shared" ref="P26" si="92">P23-SUM(P24:P25)</f>
         <v>3318</v>
       </c>
       <c r="Q26" s="11">
-        <f t="shared" ref="Q26" si="87">Q23-SUM(Q24:Q25)</f>
+        <f t="shared" ref="Q26" si="93">Q23-SUM(Q24:Q25)</f>
         <v>2259</v>
       </c>
       <c r="R26" s="11">
-        <f t="shared" ref="R26" si="88">R23-SUM(R24:R25)</f>
+        <f t="shared" ref="R26" si="94">R23-SUM(R24:R25)</f>
         <v>3282</v>
       </c>
       <c r="S26" s="11">
-        <f t="shared" ref="S26" si="89">S23-SUM(S24:S25)</f>
+        <f t="shared" ref="S26" si="95">S23-SUM(S24:S25)</f>
         <v>3697</v>
       </c>
       <c r="T26" s="11">
-        <f t="shared" ref="T26" si="90">T23-SUM(T24:T25)</f>
+        <f t="shared" ref="T26" si="96">T23-SUM(T24:T25)</f>
         <v>2513</v>
       </c>
       <c r="U26" s="11">
-        <f t="shared" ref="U26" si="91">U23-SUM(U24:U25)</f>
+        <f t="shared" ref="U26" si="97">U23-SUM(U24:U25)</f>
         <v>2703</v>
       </c>
       <c r="V26" s="11">
-        <f t="shared" ref="V26:W26" si="92">V23-SUM(V24:V25)</f>
+        <f t="shared" ref="V26:W26" si="98">V23-SUM(V24:V25)</f>
         <v>1843</v>
       </c>
       <c r="W26" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>7938</v>
       </c>
-      <c r="X26" s="151">
-        <f t="shared" ref="X26" si="93">X23-SUM(X24:X25)</f>
+      <c r="X26" s="11">
+        <f t="shared" ref="X26" si="99">X23-SUM(X24:X25)</f>
         <v>1129</v>
       </c>
-      <c r="Y26" s="14">
-        <f t="shared" ref="Y26:AA26" si="94">Y23-SUM(Y24:Y25)</f>
+      <c r="Y26" s="154">
+        <f t="shared" ref="Y26:AA26" si="100">Y23-SUM(Y24:Y25)</f>
         <v>1438</v>
       </c>
-      <c r="Z26" s="151">
-        <f t="shared" si="94"/>
+      <c r="Z26" s="14">
+        <f t="shared" si="100"/>
+        <v>2167</v>
+      </c>
+      <c r="AA26" s="11">
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="151">
-        <f t="shared" si="94"/>
+      <c r="AB26" s="11">
+        <f t="shared" ref="AB26" si="101">AB23-SUM(AB24:AB25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="C27" s="10">
         <v>887</v>
@@ -19922,18 +20008,21 @@
       <c r="W27" s="10">
         <v>3492</v>
       </c>
-      <c r="X27" s="150">
+      <c r="X27" s="10">
         <v>3484</v>
       </c>
-      <c r="Y27" s="15">
+      <c r="Y27" s="153">
         <v>3481</v>
       </c>
-      <c r="Z27" s="150"/>
-      <c r="AA27" s="150"/>
-    </row>
-    <row r="28" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z27" s="15">
+        <v>3497</v>
+      </c>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+    </row>
+    <row r="28" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2">
         <f>C26/C27</f>
@@ -19958,43 +20047,43 @@
       <c r="H28" s="55"/>
       <c r="I28" s="56"/>
       <c r="L28" s="2">
-        <f t="shared" ref="L28:U28" si="95">L26/L27</f>
+        <f t="shared" ref="L28:U28" si="102">L26/L27</f>
         <v>0.38658428949691087</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="102"/>
         <v>1.0205540661304737</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="102"/>
         <v>0.48026120510537251</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="102"/>
         <v>0.68546958062610752</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="102"/>
         <v>0.95564516129032262</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="102"/>
         <v>0.65213625866050806</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="102"/>
         <v>0.94636678200692037</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="102"/>
         <v>1.0638848920863309</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="102"/>
         <v>0.7246251441753172</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="102"/>
         <v>0.77717078780908566</v>
       </c>
       <c r="V28" s="2">
@@ -20005,20 +20094,24 @@
         <f>W26/W27</f>
         <v>2.2731958762886597</v>
       </c>
-      <c r="X28" s="152">
+      <c r="X28" s="2">
         <f>X26/X27</f>
         <v>0.32405281285878301</v>
       </c>
-      <c r="Y28" s="35">
+      <c r="Y28" s="156">
         <f>Y26/Y27</f>
         <v>0.41309968399885089</v>
       </c>
-      <c r="Z28" s="152"/>
-      <c r="AA28" s="152"/>
-    </row>
-    <row r="29" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z28" s="35">
+        <f>Z26/Z27</f>
+        <v>0.61967400629110669</v>
+      </c>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+    </row>
+    <row r="29" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -20026,10 +20119,10 @@
       <c r="F29" s="2"/>
       <c r="G29" s="35"/>
       <c r="H29" s="44">
-        <v>2.27</v>
+        <v>2.48</v>
       </c>
       <c r="I29" s="45">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="L29" s="50"/>
       <c r="M29" s="50"/>
@@ -20043,22 +20136,25 @@
       <c r="U29" s="50"/>
       <c r="V29" s="50"/>
       <c r="W29" s="49"/>
-      <c r="X29" s="153">
+      <c r="X29" s="130">
         <v>0.51</v>
       </c>
-      <c r="Y29" s="160">
+      <c r="Y29" s="157">
         <v>0.64</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="Z29" s="161">
         <v>0.56999999999999995</v>
       </c>
       <c r="AA29" s="1">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.74</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3">
         <f>1-C16/C9</f>
@@ -20083,73 +20179,77 @@
       <c r="H30" s="46"/>
       <c r="I30" s="46"/>
       <c r="L30" s="3">
-        <f t="shared" ref="L30:X30" si="96">1-L16/L9</f>
+        <f t="shared" ref="L30:X30" si="103">1-L16/L9</f>
         <v>0.21320627586870733</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0.24117745442381666</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0.26604637639020134</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0.27354816863254139</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0.29110684580934099</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0.25002952639659859</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0.25086231005873028</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0.23756065465910026</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0.19336448197522393</v>
       </c>
       <c r="U30" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0.18185100493440842</v>
       </c>
       <c r="V30" s="3">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0.17892933618843687</v>
       </c>
       <c r="W30" s="39">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0.17634203520483172</v>
       </c>
       <c r="X30" s="39">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0.17351298061123888</v>
       </c>
-      <c r="Y30" s="6">
-        <f t="shared" ref="Y30:AA30" si="97">1-Y16/Y9</f>
+      <c r="Y30" s="39">
+        <f t="shared" ref="Y30:AA30" si="104">1-Y16/Y9</f>
         <v>0.17952941176470594</v>
       </c>
-      <c r="Z30" s="39" t="e">
-        <f t="shared" si="97"/>
+      <c r="Z30" s="6">
+        <f t="shared" si="104"/>
+        <v>0.19843539035819235</v>
+      </c>
+      <c r="AA30" s="39" t="e">
+        <f t="shared" si="104"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA30" s="39" t="e">
-        <f t="shared" si="97"/>
+      <c r="AB30" s="39" t="e">
+        <f t="shared" ref="AB30" si="105">1-AB16/AB9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4">
         <f>C26/C9</f>
@@ -20180,73 +20280,77 @@
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" ref="L31:X31" si="98">L26/L9</f>
+        <f t="shared" ref="L31:X31" si="106">L26/L9</f>
         <v>4.2159976898642794E-2</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>9.5500919886268604E-2</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>0.11761285163916552</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>0.13098933348383091</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>0.17690339091490723</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>0.13340025983229006</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>0.15297846555420899</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>0.1520273048770458</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>0.10772000514381243</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>0.10843663497412444</v>
       </c>
       <c r="V31" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>7.8929336188436824E-2</v>
       </c>
       <c r="W31" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>0.31541304088687566</v>
       </c>
-      <c r="X31" s="154">
-        <f t="shared" si="98"/>
+      <c r="X31" s="4">
+        <f t="shared" si="106"/>
         <v>5.3002206469179851E-2</v>
       </c>
-      <c r="Y31" s="7">
-        <f t="shared" ref="Y31:AA31" si="99">Y26/Y9</f>
+      <c r="Y31" s="158">
+        <f t="shared" ref="Y31:AA31" si="107">Y26/Y9</f>
         <v>5.6392156862745096E-2</v>
       </c>
-      <c r="Z31" s="154" t="e">
-        <f t="shared" si="99"/>
+      <c r="Z31" s="7">
+        <f t="shared" si="107"/>
+        <v>8.6053530299420214E-2</v>
+      </c>
+      <c r="AA31" s="4" t="e">
+        <f t="shared" si="107"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA31" s="154" t="e">
-        <f t="shared" si="99"/>
+      <c r="AB31" s="4" t="e">
+        <f t="shared" ref="AB31" si="108">AB26/AB9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
@@ -20267,68 +20371,72 @@
       </c>
       <c r="H32" s="48">
         <f>H10/G9-1</f>
-        <v>2.1875936469883062E-2</v>
+        <v>3.014270509336292E-2</v>
       </c>
       <c r="I32" s="48">
         <f>I10/H10-1</f>
-        <v>0.15673981191222564</v>
+        <v>0.15979536563346364</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4">
-        <f t="shared" ref="P32:W32" si="100">P9/L9-1</f>
+        <f t="shared" ref="P32:W32" si="109">P9/L9-1</f>
         <v>0.80537106555010096</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>0.41612309750794441</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>0.55949698335392894</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>0.37242508042214562</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>0.24381531243335464</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>0.47200897602456604</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>8.8375128181224838E-2</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>3.4912410560078877E-2</v>
       </c>
-      <c r="X32" s="155">
+      <c r="X32" s="131">
         <f>X10/T9-1</f>
         <v>-4.2393587380513575E-2</v>
       </c>
-      <c r="Y32" s="159">
-        <f t="shared" ref="Y32:AA32" si="101">Y10/U9-1</f>
+      <c r="Y32" s="158">
+        <f t="shared" ref="Y32:AB32" si="110">Y10/U9-1</f>
         <v>1.3359008304248299E-2</v>
       </c>
-      <c r="Z32" s="158">
-        <f t="shared" si="101"/>
+      <c r="Z32" s="7">
+        <f t="shared" si="110"/>
         <v>8.5224839400428243E-2</v>
       </c>
-      <c r="AA32" s="158">
-        <f t="shared" si="101"/>
-        <v>6.8065323638097475E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AA32" s="4">
+        <f t="shared" si="110"/>
+        <v>8.7535264433583615E-2</v>
+      </c>
+      <c r="AB32" s="4">
+        <f t="shared" si="110"/>
+        <v>0.22388620252570313</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="4">
         <f>C17/C9</f>
@@ -20353,73 +20461,77 @@
       <c r="H33" s="122"/>
       <c r="I33" s="122"/>
       <c r="L33" s="4">
-        <f t="shared" ref="L33:X33" si="102">L17/L9</f>
+        <f t="shared" ref="L33:X33" si="111">L17/L9</f>
         <v>6.410626624314178E-2</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="111"/>
         <v>4.8168590065228299E-2</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="111"/>
         <v>4.4413752998473506E-2</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="111"/>
         <v>4.176307918054066E-2</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="111"/>
         <v>4.6118575389208785E-2</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="111"/>
         <v>3.9388213062477855E-2</v>
       </c>
       <c r="R33" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="111"/>
         <v>3.4166122867530534E-2</v>
       </c>
       <c r="S33" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="111"/>
         <v>3.3308660251665435E-2</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="111"/>
         <v>3.3048994813322477E-2</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="111"/>
         <v>3.7830464957676418E-2</v>
       </c>
       <c r="V33" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="111"/>
         <v>4.9721627408993579E-2</v>
       </c>
       <c r="W33" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="111"/>
         <v>4.3469622918901739E-2</v>
       </c>
-      <c r="X33" s="154">
-        <f t="shared" si="102"/>
+      <c r="X33" s="4">
+        <f t="shared" si="111"/>
         <v>5.4035021829961033E-2</v>
       </c>
-      <c r="Y33" s="7">
-        <f t="shared" ref="Y33:AA33" si="103">Y17/Y9</f>
+      <c r="Y33" s="158">
+        <f t="shared" ref="Y33:AA33" si="112">Y17/Y9</f>
         <v>4.211764705882353E-2</v>
       </c>
-      <c r="Z33" s="154" t="e">
-        <f t="shared" si="103"/>
+      <c r="Z33" s="7">
+        <f t="shared" si="112"/>
+        <v>4.1259629894368995E-2</v>
+      </c>
+      <c r="AA33" s="4" t="e">
+        <f t="shared" si="112"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA33" s="154" t="e">
-        <f t="shared" si="103"/>
+      <c r="AB33" s="4" t="e">
+        <f t="shared" ref="AB33" si="113">AB17/AB9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="4">
         <f>C18/C9</f>
@@ -20444,89 +20556,93 @@
       <c r="H34" s="122"/>
       <c r="I34" s="122"/>
       <c r="L34" s="4">
-        <f t="shared" ref="L34:X34" si="104">L18/L9</f>
+        <f t="shared" ref="L34:X34" si="114">L18/L9</f>
         <v>0.10164597170083742</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>8.1368121759491555E-2</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>7.2254125172639377E-2</v>
       </c>
       <c r="O34" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>8.4316270669902368E-2</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>5.2889741949242911E-2</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>5.6749734262430615E-2</v>
       </c>
       <c r="R34" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>4.4793511699449985E-2</v>
       </c>
       <c r="S34" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>4.2437700468788551E-2</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>4.6122851386686099E-2</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>4.7779516187266821E-2</v>
       </c>
       <c r="V34" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>5.4089935760171307E-2</v>
       </c>
       <c r="W34" s="4">
-        <f t="shared" si="104"/>
+        <f t="shared" si="114"/>
         <v>5.0462907776055943E-2</v>
       </c>
-      <c r="X34" s="154">
-        <f t="shared" si="104"/>
+      <c r="X34" s="4">
+        <f t="shared" si="114"/>
         <v>6.4504013896061224E-2</v>
       </c>
-      <c r="Y34" s="7">
-        <f t="shared" ref="Y34:AA34" si="105">Y18/Y9</f>
+      <c r="Y34" s="158">
+        <f t="shared" ref="Y34:AA34" si="115">Y18/Y9</f>
         <v>5.0078431372549019E-2</v>
       </c>
-      <c r="Z34" s="154" t="e">
-        <f t="shared" si="105"/>
+      <c r="Z34" s="7">
+        <f t="shared" si="115"/>
+        <v>4.7097132872686839E-2</v>
+      </c>
+      <c r="AA34" s="4" t="e">
+        <f t="shared" si="115"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA34" s="154" t="e">
-        <f t="shared" si="105"/>
+      <c r="AB34" s="4" t="e">
+        <f t="shared" ref="AB34" si="116">AB18/AB9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4">
-        <f t="shared" ref="D35" si="106">D3/C3-1</f>
+        <f t="shared" ref="D35" si="117">D3/C3-1</f>
         <v>0.27099907015187519</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" ref="E35:G36" si="107">E3/D3-1</f>
+        <f t="shared" ref="E35:G36" si="118">E3/D3-1</f>
         <v>0.79340757600390188</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="118"/>
         <v>0.52317280453257786</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="118"/>
         <v>0.16811486385954466</v>
       </c>
       <c r="H35" s="122"/>
@@ -20540,69 +20656,73 @@
         <v>0.89495541712470983</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" ref="Q35:X35" si="108">Q3/M3-1</f>
+        <f t="shared" ref="Q35:X35" si="119">Q3/M3-1</f>
         <v>0.43592436974789917</v>
       </c>
       <c r="R35" s="4">
-        <f t="shared" si="108"/>
+        <f t="shared" si="119"/>
         <v>0.561046256473273</v>
       </c>
       <c r="S35" s="4">
-        <f t="shared" si="108"/>
+        <f t="shared" si="119"/>
         <v>0.34715474209650576</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" si="108"/>
+        <f t="shared" si="119"/>
         <v>0.21683640582699493</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" si="108"/>
+        <f t="shared" si="119"/>
         <v>0.49370885149963417</v>
       </c>
       <c r="V35" s="4">
-        <f t="shared" si="108"/>
+        <f t="shared" si="119"/>
         <v>4.4813044700590332E-2</v>
       </c>
       <c r="W35" s="4">
-        <f t="shared" si="108"/>
+        <f t="shared" si="119"/>
         <v>1.9218418062348697E-2</v>
       </c>
-      <c r="X35" s="154">
-        <f t="shared" si="108"/>
+      <c r="X35" s="4">
+        <f t="shared" si="119"/>
         <v>-0.12808560228837795</v>
       </c>
-      <c r="Y35" s="7">
-        <f t="shared" ref="Y35:Y36" si="109">Y3/U3-1</f>
+      <c r="Y35" s="158">
+        <f t="shared" ref="Y35:Y36" si="120">Y3/U3-1</f>
         <v>-9.2511876193741127E-2</v>
       </c>
-      <c r="Z35" s="154">
-        <f t="shared" ref="Z35:Z36" si="110">Z3/V3-1</f>
+      <c r="Z35" s="7">
+        <f t="shared" ref="Z35:Z36" si="121">Z3/V3-1</f>
+        <v>1.3400064578624526E-2</v>
+      </c>
+      <c r="AA35" s="4">
+        <f t="shared" ref="AA35:AB36" si="122">AA3/W3-1</f>
         <v>-1</v>
       </c>
-      <c r="AA35" s="154">
-        <f t="shared" ref="AA35:AA36" si="111">AA3/W3-1</f>
+      <c r="AB35" s="4">
+        <f t="shared" si="122"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4">
-        <f t="shared" ref="D36" si="112">D4/C4-1</f>
+        <f t="shared" ref="D36" si="123">D4/C4-1</f>
         <v>1.65993265993266</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="118"/>
         <v>-7.2784810126582333E-2</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="107"/>
+        <f t="shared" si="118"/>
         <v>0.21228668941979523</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="107"/>
+        <f t="shared" si="118"/>
         <v>7.8828828828829689E-3</v>
       </c>
       <c r="H36" s="122"/>
@@ -20616,53 +20736,57 @@
         <v>0.31081081081081074</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" ref="Q36:X36" si="113">Q4/M4-1</f>
+        <f t="shared" ref="Q36:X36" si="124">Q4/M4-1</f>
         <v>-2.8248587570621431E-2</v>
       </c>
       <c r="R36" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="124"/>
         <v>2.5089605734766929E-2</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="124"/>
         <v>0.48726114649681529</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="124"/>
         <v>-0.23269513991163471</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="124"/>
         <v>-0.18023255813953487</v>
       </c>
       <c r="V36" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="124"/>
         <v>0.93706293706293708</v>
       </c>
       <c r="W36" s="4">
-        <f t="shared" si="113"/>
+        <f t="shared" si="124"/>
         <v>-7.2805139186295498E-2</v>
       </c>
-      <c r="X36" s="154">
-        <f t="shared" si="113"/>
+      <c r="X36" s="4">
+        <f t="shared" si="124"/>
         <v>-0.15163147792706333</v>
       </c>
-      <c r="Y36" s="7">
-        <f t="shared" si="109"/>
+      <c r="Y36" s="158">
+        <f t="shared" si="120"/>
         <v>2.1560283687943262</v>
       </c>
-      <c r="Z36" s="154">
-        <f t="shared" si="110"/>
+      <c r="Z36" s="7">
+        <f t="shared" si="121"/>
+        <v>0.3339350180505416</v>
+      </c>
+      <c r="AA36" s="4">
+        <f t="shared" si="122"/>
         <v>-1</v>
       </c>
-      <c r="AA36" s="154">
-        <f t="shared" si="111"/>
+      <c r="AB36" s="4">
+        <f t="shared" si="122"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3">
@@ -20683,87 +20807,91 @@
       </c>
       <c r="H37" s="57">
         <f>H29/G28-1</f>
-        <v>-0.47249783289991332</v>
+        <v>-0.42369807294792294</v>
       </c>
       <c r="I37" s="57">
         <f>I29/H29-1</f>
-        <v>0.35242290748898664</v>
+        <v>0.30645161290322598</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4">
-        <f t="shared" ref="P37:X37" si="114">P26/L26-1</f>
+        <f t="shared" ref="P37:X37" si="125">P26/L26-1</f>
         <v>6.5753424657534243</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="125"/>
         <v>0.97810858143607704</v>
       </c>
       <c r="R37" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="125"/>
         <v>1.0284301606922126</v>
       </c>
       <c r="S37" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="125"/>
         <v>0.59284791038345541</v>
       </c>
       <c r="T37" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="125"/>
         <v>-0.2426160337552743</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="125"/>
         <v>0.19654714475431612</v>
       </c>
       <c r="V37" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="125"/>
         <v>-0.43845216331505177</v>
       </c>
       <c r="W37" s="4">
-        <f t="shared" si="114"/>
+        <f t="shared" si="125"/>
         <v>1.1471463348661075</v>
       </c>
-      <c r="X37" s="154">
-        <f t="shared" si="114"/>
+      <c r="X37" s="4">
+        <f t="shared" si="125"/>
         <v>-0.55073617190608837</v>
       </c>
-      <c r="Y37" s="7">
-        <f t="shared" ref="Y37" si="115">Y26/U26-1</f>
+      <c r="Y37" s="158">
+        <f t="shared" ref="Y37" si="126">Y26/U26-1</f>
         <v>-0.46799852016278209</v>
       </c>
-      <c r="Z37" s="154">
-        <f t="shared" ref="Z37" si="116">Z26/V26-1</f>
+      <c r="Z37" s="7">
+        <f t="shared" ref="Z37" si="127">Z26/V26-1</f>
+        <v>0.17580032555615843</v>
+      </c>
+      <c r="AA37" s="4">
+        <f t="shared" ref="AA37:AB37" si="128">AA26/W26-1</f>
         <v>-1</v>
       </c>
-      <c r="AA37" s="154">
-        <f t="shared" ref="AA37" si="117">AA26/W26-1</f>
+      <c r="AB37" s="4">
+        <f t="shared" si="128"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C38" s="127">
-        <f t="shared" ref="C38:G39" si="118">1-C11/C3</f>
+        <f t="shared" ref="C38:G39" si="129">1-C11/C3</f>
         <v>0.17661948548403761</v>
       </c>
       <c r="D38" s="127">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.19947975938871731</v>
       </c>
       <c r="E38" s="127">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.26538243626062319</v>
       </c>
       <c r="F38" s="127">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.26202945990180038</v>
       </c>
       <c r="G38" s="128">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.17052821969455734</v>
       </c>
       <c r="H38" s="129"/>
@@ -20773,88 +20901,92 @@
         <v>0.21131061438866494</v>
       </c>
       <c r="M38" s="127">
-        <f t="shared" ref="M38:X38" si="119">1-M11/M3</f>
+        <f t="shared" ref="M38:X38" si="130">1-M11/M3</f>
         <v>0.25220588235294117</v>
       </c>
       <c r="N38" s="127">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.28464846835776358</v>
       </c>
       <c r="O38" s="127">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.28858569051580696</v>
       </c>
       <c r="P38" s="127">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.29650638133298957</v>
       </c>
       <c r="Q38" s="127">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.25727871250914414</v>
       </c>
       <c r="R38" s="127">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.26348046106269329</v>
       </c>
       <c r="S38" s="127">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.23753767106368262</v>
       </c>
       <c r="T38" s="127">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.1830702404915775</v>
       </c>
       <c r="U38" s="127">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.17522895342573097</v>
       </c>
       <c r="V38" s="127">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.15746421267893662</v>
       </c>
       <c r="W38" s="129">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.16616577799321375</v>
       </c>
       <c r="X38" s="129">
-        <f t="shared" si="119"/>
+        <f t="shared" si="130"/>
         <v>0.15571081409477516</v>
       </c>
-      <c r="Y38" s="128">
-        <f t="shared" ref="Y38:AA38" si="120">1-Y11/Y3</f>
+      <c r="Y38" s="129">
+        <f t="shared" ref="Y38:AA38" si="131">1-Y11/Y3</f>
         <v>0.1385860766324879</v>
       </c>
-      <c r="Z38" s="129" t="e">
-        <f t="shared" si="120"/>
+      <c r="Z38" s="128">
+        <f t="shared" si="131"/>
+        <v>0.16398491848547603</v>
+      </c>
+      <c r="AA38" s="129" t="e">
+        <f t="shared" si="131"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA38" s="129" t="e">
-        <f t="shared" si="120"/>
+      <c r="AB38" s="129" t="e">
+        <f t="shared" ref="AB38" si="132">1-AB11/AB3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" s="127">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.22727272727272729</v>
       </c>
       <c r="D39" s="127">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.64367088607594936</v>
       </c>
       <c r="E39" s="127">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.33242320819112625</v>
       </c>
       <c r="F39" s="127">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.15033783783783783</v>
       </c>
       <c r="G39" s="128">
-        <f t="shared" si="118"/>
+        <f t="shared" si="129"/>
         <v>0.29162011173184355</v>
       </c>
       <c r="H39" s="129"/>
@@ -20864,88 +20996,92 @@
         <v>0.69111969111969107</v>
       </c>
       <c r="M39" s="127">
-        <f t="shared" ref="M39:X39" si="121">1-M12/M4</f>
+        <f t="shared" ref="M39:X39" si="133">1-M12/M4</f>
         <v>0.46892655367231639</v>
       </c>
       <c r="N39" s="127">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>0.16129032258064513</v>
       </c>
       <c r="O39" s="127">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>-0.26114649681528657</v>
       </c>
       <c r="P39" s="127">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>0.39911634756995584</v>
       </c>
       <c r="Q39" s="127">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>-6.9767441860465018E-2</v>
       </c>
       <c r="R39" s="127">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>-0.33216783216783208</v>
       </c>
       <c r="S39" s="127">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>0.24625267665952888</v>
       </c>
       <c r="T39" s="127">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>0.36084452975047987</v>
       </c>
       <c r="U39" s="127">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>-0.19858156028368801</v>
       </c>
       <c r="V39" s="127">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>0.45667870036101088</v>
       </c>
       <c r="W39" s="129">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>0.31639722863741337</v>
       </c>
       <c r="X39" s="129">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>0.39140271493212675</v>
       </c>
-      <c r="Y39" s="128">
-        <f t="shared" ref="Y39:AA39" si="122">1-Y12/Y4</f>
+      <c r="Y39" s="129">
+        <f t="shared" ref="Y39:AA39" si="134">1-Y12/Y4</f>
         <v>0.7247191011235955</v>
       </c>
-      <c r="Z39" s="129" t="e">
-        <f t="shared" si="122"/>
+      <c r="Z39" s="128">
+        <f t="shared" si="134"/>
+        <v>0.66576454668470908</v>
+      </c>
+      <c r="AA39" s="129" t="e">
+        <f t="shared" si="134"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA39" s="129" t="e">
-        <f t="shared" si="122"/>
+      <c r="AB39" s="129" t="e">
+        <f t="shared" ref="AB39" si="135">1-AB12/AB4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" s="127">
-        <f t="shared" ref="C40:G41" si="123">1-C14/C7</f>
+        <f t="shared" ref="C40:G41" si="136">1-C14/C7</f>
         <v>0.12410189418680606</v>
       </c>
       <c r="D40" s="127">
-        <f t="shared" si="123"/>
+        <f t="shared" si="136"/>
         <v>9.0270812437311942E-3</v>
       </c>
       <c r="E40" s="127">
-        <f t="shared" si="123"/>
+        <f t="shared" si="136"/>
         <v>-4.6253137325206195E-2</v>
       </c>
       <c r="F40" s="127">
-        <f t="shared" si="123"/>
+        <f t="shared" si="136"/>
         <v>7.3676132003069883E-2</v>
       </c>
       <c r="G40" s="128">
-        <f t="shared" si="123"/>
+        <f t="shared" si="136"/>
         <v>0.18906379453189726</v>
       </c>
       <c r="H40" s="129"/>
@@ -20955,88 +21091,92 @@
         <v>-0.20445344129554655</v>
       </c>
       <c r="M40" s="127">
-        <f t="shared" ref="M40:X40" si="124">1-M14/M7</f>
+        <f t="shared" ref="M40:X40" si="137">1-M14/M7</f>
         <v>2.4968789013732784E-2</v>
       </c>
       <c r="N40" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="137"/>
         <v>3.7220843672456372E-3</v>
       </c>
       <c r="O40" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="137"/>
         <v>-7.4127906976744207E-2</v>
       </c>
       <c r="P40" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="137"/>
         <v>-0.11688311688311681</v>
       </c>
       <c r="Q40" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="137"/>
         <v>0.11200923787528871</v>
       </c>
       <c r="R40" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="137"/>
         <v>9.3106535362578291E-2</v>
       </c>
       <c r="S40" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="137"/>
         <v>0.12137404580152666</v>
       </c>
       <c r="T40" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="137"/>
         <v>0.1098757357750163</v>
       </c>
       <c r="U40" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="137"/>
         <v>0.1842279655400928</v>
       </c>
       <c r="V40" s="127">
-        <f t="shared" si="124"/>
+        <f t="shared" si="137"/>
         <v>0.24438742783835787</v>
       </c>
       <c r="W40" s="129">
-        <f t="shared" si="124"/>
+        <f t="shared" si="137"/>
         <v>0.21835883171070936</v>
       </c>
       <c r="X40" s="129">
-        <f t="shared" si="124"/>
+        <f t="shared" si="137"/>
         <v>0.24648318042813455</v>
       </c>
-      <c r="Y40" s="128">
-        <f t="shared" ref="Y40:AA40" si="125">1-Y14/Y7</f>
+      <c r="Y40" s="129">
+        <f t="shared" ref="Y40:AA40" si="138">1-Y14/Y7</f>
         <v>0.24552090245520908</v>
       </c>
-      <c r="Z40" s="129" t="e">
-        <f t="shared" si="125"/>
+      <c r="Z40" s="128">
+        <f t="shared" si="138"/>
+        <v>0.30513468013468015</v>
+      </c>
+      <c r="AA40" s="129" t="e">
+        <f t="shared" si="138"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA40" s="129" t="e">
-        <f t="shared" si="125"/>
+      <c r="AB40" s="129" t="e">
+        <f t="shared" ref="AB40" si="139">1-AB14/AB7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" s="127">
-        <f t="shared" si="123"/>
+        <f t="shared" si="136"/>
         <v>-0.24438454627133877</v>
       </c>
       <c r="D41" s="127">
-        <f t="shared" si="123"/>
+        <f t="shared" si="136"/>
         <v>-0.15828274067649617</v>
       </c>
       <c r="E41" s="127">
-        <f t="shared" si="123"/>
+        <f t="shared" si="136"/>
         <v>-2.7354024197790539E-2</v>
       </c>
       <c r="F41" s="127">
-        <f t="shared" si="123"/>
+        <f t="shared" si="136"/>
         <v>3.464127401083561E-2</v>
       </c>
       <c r="G41" s="128">
-        <f t="shared" si="123"/>
+        <f t="shared" si="136"/>
         <v>5.8781103498016574E-2</v>
       </c>
       <c r="L41" s="127">
@@ -21044,72 +21184,76 @@
         <v>-7.7267637178051407E-2</v>
       </c>
       <c r="M41" s="127">
-        <f t="shared" ref="M41:X41" si="126">1-M15/M8</f>
+        <f t="shared" ref="M41:X41" si="140">1-M15/M8</f>
         <v>-3.6803364879074651E-2</v>
       </c>
       <c r="N41" s="127">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>-1.7897091722595126E-2</v>
       </c>
       <c r="O41" s="127">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>1.5037593984962405E-2</v>
       </c>
       <c r="P41" s="127">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>-5.4730258014072941E-3</v>
       </c>
       <c r="Q41" s="127">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>3.8199181446111896E-2</v>
       </c>
       <c r="R41" s="127">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>4.0121580547112456E-2</v>
       </c>
       <c r="S41" s="127">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>5.6437389770723101E-2</v>
       </c>
       <c r="T41" s="127">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>7.348938486663037E-2</v>
       </c>
       <c r="U41" s="127">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>7.720930232558143E-2</v>
       </c>
       <c r="V41" s="127">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>5.9556786703601095E-2</v>
       </c>
       <c r="W41" s="129">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>2.7239150507848531E-2</v>
       </c>
       <c r="X41" s="129">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>3.5402097902097918E-2</v>
       </c>
-      <c r="Y41" s="128">
-        <f t="shared" ref="Y41:AA41" si="127">1-Y15/Y8</f>
+      <c r="Y41" s="129">
+        <f t="shared" ref="Y41:AA41" si="141">1-Y15/Y8</f>
         <v>6.4033742331288335E-2</v>
       </c>
-      <c r="Z41" s="129" t="e">
-        <f t="shared" si="127"/>
+      <c r="Z41" s="128">
+        <f t="shared" si="141"/>
+        <v>8.8172043010752654E-2</v>
+      </c>
+      <c r="AA41" s="129" t="e">
+        <f t="shared" si="141"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA41" s="129" t="e">
-        <f t="shared" si="127"/>
+      <c r="AB41" s="129" t="e">
+        <f t="shared" ref="AB41" si="142">1-AB15/AB8</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
     </row>
-    <row r="44" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="11">
         <f>C45+C46-C67</f>
@@ -21136,39 +21280,39 @@
         <v>0</v>
       </c>
       <c r="M44" s="11">
-        <f t="shared" ref="M44" si="128">M45+M46-M67</f>
+        <f t="shared" ref="M44" si="143">M45+M46-M67</f>
         <v>0</v>
       </c>
       <c r="N44" s="11">
-        <f t="shared" ref="N44:U44" si="129">N45+N46-N65-N67</f>
+        <f t="shared" ref="N44:U44" si="144">N45+N46-N65-N67</f>
         <v>0</v>
       </c>
       <c r="O44" s="11">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
       <c r="P44" s="11">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>13201</v>
       </c>
       <c r="Q44" s="11">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>14485</v>
       </c>
       <c r="R44" s="11">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>17554</v>
       </c>
       <c r="S44" s="11">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>19086</v>
       </c>
       <c r="T44" s="11">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>19726</v>
       </c>
       <c r="U44" s="11">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>20744</v>
       </c>
       <c r="V44" s="11">
@@ -21179,26 +21323,30 @@
         <f>W45+W46-W65-W67</f>
         <v>23864</v>
       </c>
-      <c r="X44" s="151">
+      <c r="X44" s="11">
         <f>X45+X46-X65-X67</f>
         <v>21503</v>
       </c>
-      <c r="Y44" s="14">
-        <f t="shared" ref="Y44:AA44" si="130">Y45+Y46-Y65-Y67</f>
+      <c r="Y44" s="154">
+        <f t="shared" ref="Y44:AA44" si="145">Y45+Y46-Y65-Y67</f>
         <v>22975</v>
       </c>
-      <c r="Z44" s="151">
-        <f t="shared" si="130"/>
+      <c r="Z44" s="14">
+        <f t="shared" si="145"/>
+        <v>25952</v>
+      </c>
+      <c r="AA44" s="11">
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="AA44" s="151">
-        <f t="shared" si="130"/>
+      <c r="AB44" s="11">
+        <f t="shared" ref="AB44" si="146">AB45+AB46-AB65-AB67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10">
@@ -21243,18 +21391,21 @@
         <f>G45</f>
         <v>16398</v>
       </c>
-      <c r="X45" s="150">
+      <c r="X45" s="10">
         <v>26863</v>
       </c>
-      <c r="Y45" s="15">
+      <c r="Y45" s="153">
         <v>14635</v>
       </c>
-      <c r="Z45" s="150"/>
-      <c r="AA45" s="150"/>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z45" s="15">
+        <v>18111</v>
+      </c>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10">
@@ -21283,7 +21434,7 @@
         <v>1575</v>
       </c>
       <c r="S46" s="10">
-        <f t="shared" ref="S46:S49" si="131">F46</f>
+        <f t="shared" ref="S46:S49" si="147">F46</f>
         <v>5932</v>
       </c>
       <c r="T46" s="10">
@@ -21296,19 +21447,22 @@
         <v>10145</v>
       </c>
       <c r="W46" s="10">
-        <f t="shared" ref="W46:W49" si="132">G46</f>
+        <f t="shared" ref="W46:W49" si="148">G46</f>
         <v>12696</v>
       </c>
-      <c r="X46" s="150"/>
-      <c r="Y46" s="15">
+      <c r="X46" s="10"/>
+      <c r="Y46" s="153">
         <v>16085</v>
       </c>
-      <c r="Z46" s="150"/>
-      <c r="AA46" s="150"/>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z46" s="15">
+        <v>15537</v>
+      </c>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
@@ -21337,7 +21491,7 @@
         <v>2192</v>
       </c>
       <c r="S47" s="10">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>2952</v>
       </c>
       <c r="T47" s="10">
@@ -21350,21 +21504,24 @@
         <v>2520</v>
       </c>
       <c r="W47" s="10">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>3508</v>
       </c>
-      <c r="X47" s="150">
+      <c r="X47" s="10">
         <v>3887</v>
       </c>
-      <c r="Y47" s="15">
+      <c r="Y47" s="153">
         <v>3737</v>
       </c>
-      <c r="Z47" s="150"/>
-      <c r="AA47" s="150"/>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z47" s="15">
+        <v>3313</v>
+      </c>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
@@ -21393,7 +21550,7 @@
         <v>10327</v>
       </c>
       <c r="S48" s="10">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>12839</v>
       </c>
       <c r="T48" s="10">
@@ -21406,21 +21563,24 @@
         <v>13721</v>
       </c>
       <c r="W48" s="10">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>13626</v>
       </c>
-      <c r="X48" s="150">
+      <c r="X48" s="10">
         <v>16033</v>
       </c>
-      <c r="Y48" s="15">
+      <c r="Y48" s="153">
         <v>14195</v>
       </c>
-      <c r="Z48" s="150"/>
-      <c r="AA48" s="150"/>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z48" s="15">
+        <v>14530</v>
+      </c>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
@@ -21449,7 +21609,7 @@
         <v>2364</v>
       </c>
       <c r="S49" s="10">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>2941</v>
       </c>
       <c r="T49" s="10">
@@ -21462,21 +21622,24 @@
         <v>2708</v>
       </c>
       <c r="W49" s="10">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>3388</v>
       </c>
-      <c r="X49" s="150">
+      <c r="X49" s="10">
         <v>3752</v>
       </c>
-      <c r="Y49" s="15">
+      <c r="Y49" s="153">
         <v>4325</v>
       </c>
-      <c r="Z49" s="150"/>
-      <c r="AA49" s="150"/>
-    </row>
-    <row r="50" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z49" s="15">
+        <v>4888</v>
+      </c>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+    </row>
+    <row r="50" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="11">
         <f>SUM(C45:C49)</f>
@@ -21499,73 +21662,77 @@
         <v>49616</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" ref="L50:W50" si="133">SUM(L45:L49)</f>
+        <f t="shared" ref="L50:W50" si="149">SUM(L45:L49)</f>
         <v>0</v>
       </c>
       <c r="M50" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="O50" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="P50" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>29050</v>
       </c>
       <c r="Q50" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>31222</v>
       </c>
       <c r="R50" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>35990</v>
       </c>
       <c r="S50" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>40917</v>
       </c>
       <c r="T50" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>42997</v>
       </c>
       <c r="U50" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>43875</v>
       </c>
       <c r="V50" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>45026</v>
       </c>
       <c r="W50" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>49616</v>
       </c>
-      <c r="X50" s="151">
-        <f t="shared" ref="X50:AA50" si="134">SUM(X45:X49)</f>
+      <c r="X50" s="11">
+        <f t="shared" ref="X50:AA50" si="150">SUM(X45:X49)</f>
         <v>50535</v>
       </c>
-      <c r="Y50" s="14">
-        <f t="shared" si="134"/>
+      <c r="Y50" s="154">
+        <f t="shared" si="150"/>
         <v>52977</v>
       </c>
-      <c r="Z50" s="151">
-        <f t="shared" si="134"/>
+      <c r="Z50" s="14">
+        <f t="shared" si="150"/>
+        <v>56379</v>
+      </c>
+      <c r="AA50" s="11">
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
-      <c r="AA50" s="151">
-        <f t="shared" si="134"/>
+      <c r="AB50" s="11">
+        <f t="shared" ref="AB50" si="151">SUM(AB45:AB49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10">
@@ -21594,7 +21761,7 @@
         <v>4824</v>
       </c>
       <c r="S51" s="10">
-        <f t="shared" ref="S51:S59" si="135">F51</f>
+        <f t="shared" ref="S51:S59" si="152">F51</f>
         <v>5035</v>
       </c>
       <c r="T51" s="10">
@@ -21607,21 +21774,24 @@
         <v>6119</v>
       </c>
       <c r="W51" s="10">
-        <f t="shared" ref="W51:W59" si="136">G51</f>
+        <f t="shared" ref="W51:W59" si="153">G51</f>
         <v>5989</v>
       </c>
-      <c r="X51" s="150">
+      <c r="X51" s="10">
         <v>5736</v>
       </c>
-      <c r="Y51" s="15">
+      <c r="Y51" s="153">
         <v>5541</v>
       </c>
-      <c r="Z51" s="150"/>
-      <c r="AA51" s="150"/>
-    </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z51" s="15">
+        <v>5380</v>
+      </c>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10">
@@ -21650,7 +21820,7 @@
         <v>5562</v>
       </c>
       <c r="S52" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>5489</v>
       </c>
       <c r="T52" s="10">
@@ -21663,21 +21833,24 @@
         <v>5293</v>
       </c>
       <c r="W52" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>5229</v>
       </c>
-      <c r="X52" s="150">
+      <c r="X52" s="10">
         <v>5162</v>
       </c>
-      <c r="Y52" s="15">
+      <c r="Y52" s="153">
         <v>5102</v>
       </c>
-      <c r="Z52" s="150"/>
-      <c r="AA52" s="150"/>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z52" s="15">
+        <v>5040</v>
+      </c>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10">
@@ -21706,7 +21879,7 @@
         <v>21926</v>
       </c>
       <c r="S53" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>23548</v>
       </c>
       <c r="T53" s="10">
@@ -21719,21 +21892,24 @@
         <v>27744</v>
       </c>
       <c r="W53" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>29725</v>
       </c>
-      <c r="X53" s="150">
+      <c r="X53" s="10">
         <v>31436</v>
       </c>
-      <c r="Y53" s="15">
+      <c r="Y53" s="153">
         <v>32902</v>
       </c>
-      <c r="Z53" s="150"/>
-      <c r="AA53" s="150"/>
-    </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z53" s="15">
+        <v>36116</v>
+      </c>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -21762,7 +21938,7 @@
         <v>2251</v>
       </c>
       <c r="S54" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>2563</v>
       </c>
       <c r="T54" s="10">
@@ -21775,21 +21951,24 @@
         <v>3637</v>
       </c>
       <c r="W54" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>4180</v>
       </c>
-      <c r="X54" s="150">
+      <c r="X54" s="10">
         <v>4367</v>
       </c>
-      <c r="Y54" s="15">
+      <c r="Y54" s="153">
         <v>4563</v>
       </c>
-      <c r="Z54" s="150"/>
-      <c r="AA54" s="150"/>
-    </row>
-    <row r="55" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z54" s="15">
+        <v>4867</v>
+      </c>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+    </row>
+    <row r="55" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10">
@@ -21818,7 +21997,7 @@
         <v>218</v>
       </c>
       <c r="S55" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>184</v>
       </c>
       <c r="T55" s="10">
@@ -21831,21 +22010,24 @@
         <v>184</v>
       </c>
       <c r="W55" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>184</v>
       </c>
-      <c r="X55" s="150">
+      <c r="X55" s="10">
         <v>184</v>
       </c>
-      <c r="Y55" s="15">
+      <c r="Y55" s="153">
         <v>184</v>
       </c>
-      <c r="Z55" s="150"/>
-      <c r="AA55" s="150"/>
-    </row>
-    <row r="56" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z55" s="15">
+        <v>184</v>
+      </c>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+    </row>
+    <row r="56" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10">
@@ -21874,7 +22056,7 @@
         <v>228</v>
       </c>
       <c r="S56" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>215</v>
       </c>
       <c r="T56" s="10">
@@ -21887,21 +22069,24 @@
         <v>191</v>
       </c>
       <c r="W56" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>178</v>
       </c>
-      <c r="X56" s="150">
+      <c r="X56" s="10">
         <v>421</v>
       </c>
-      <c r="Y56" s="15">
+      <c r="Y56" s="153">
         <v>164</v>
       </c>
-      <c r="Z56" s="150"/>
-      <c r="AA56" s="150"/>
-    </row>
-    <row r="57" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z56" s="15">
+        <v>158</v>
+      </c>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+    </row>
+    <row r="57" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10">
@@ -21930,7 +22115,7 @@
         <v>191</v>
       </c>
       <c r="S57" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>194</v>
       </c>
       <c r="T57" s="10">
@@ -21943,19 +22128,22 @@
         <v>250</v>
       </c>
       <c r="W57" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>253</v>
       </c>
-      <c r="X57" s="150"/>
-      <c r="Y57" s="15">
+      <c r="X57" s="10"/>
+      <c r="Y57" s="153">
         <v>249</v>
       </c>
-      <c r="Z57" s="150"/>
-      <c r="AA57" s="150"/>
-    </row>
-    <row r="58" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z57" s="15">
+        <v>253</v>
+      </c>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+    </row>
+    <row r="58" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10">
@@ -21984,7 +22172,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>328</v>
       </c>
       <c r="T58" s="10">
@@ -21997,21 +22185,24 @@
         <v>0</v>
       </c>
       <c r="W58" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>6733</v>
       </c>
-      <c r="X58" s="150">
+      <c r="X58" s="10">
         <v>6769</v>
       </c>
-      <c r="Y58" s="15">
+      <c r="Y58" s="153">
         <v>6692</v>
       </c>
-      <c r="Z58" s="150"/>
-      <c r="AA58" s="150"/>
-    </row>
-    <row r="59" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z58" s="15">
+        <v>6486</v>
+      </c>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+    </row>
+    <row r="59" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
@@ -22040,7 +22231,7 @@
         <v>3226</v>
       </c>
       <c r="S59" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="152"/>
         <v>3865</v>
       </c>
       <c r="T59" s="10">
@@ -22053,21 +22244,24 @@
         <v>5497</v>
       </c>
       <c r="W59" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="153"/>
         <v>4531</v>
       </c>
-      <c r="X59" s="150">
+      <c r="X59" s="10">
         <v>4616</v>
       </c>
-      <c r="Y59" s="15">
+      <c r="Y59" s="153">
         <v>4458</v>
       </c>
-      <c r="Z59" s="150"/>
-      <c r="AA59" s="150"/>
-    </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z59" s="15">
+        <v>4989</v>
+      </c>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C60" s="11">
         <f>SUM(C50:C59)</f>
@@ -22090,73 +22284,77 @@
         <v>106618</v>
       </c>
       <c r="L60" s="11">
-        <f t="shared" ref="L60:W60" si="137">SUM(L50:L59)</f>
+        <f t="shared" ref="L60:W60" si="154">SUM(L50:L59)</f>
         <v>0</v>
       </c>
       <c r="M60" s="11">
-        <f t="shared" si="137"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="N60" s="11">
-        <f t="shared" si="137"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="O60" s="11">
-        <f t="shared" si="137"/>
+        <f t="shared" si="154"/>
         <v>0</v>
       </c>
       <c r="P60" s="11">
-        <f t="shared" si="137"/>
+        <f t="shared" si="154"/>
         <v>66038</v>
       </c>
       <c r="Q60" s="11">
-        <f t="shared" si="137"/>
+        <f t="shared" si="154"/>
         <v>68513</v>
       </c>
       <c r="R60" s="11">
-        <f t="shared" si="137"/>
+        <f t="shared" si="154"/>
         <v>74416</v>
       </c>
       <c r="S60" s="11">
-        <f t="shared" si="137"/>
+        <f t="shared" si="154"/>
         <v>82338</v>
       </c>
       <c r="T60" s="11">
-        <f t="shared" si="137"/>
+        <f t="shared" si="154"/>
         <v>86833</v>
       </c>
       <c r="U60" s="11">
-        <f t="shared" si="137"/>
+        <f t="shared" si="154"/>
         <v>90591</v>
       </c>
       <c r="V60" s="11">
-        <f t="shared" si="137"/>
+        <f t="shared" si="154"/>
         <v>93941</v>
       </c>
       <c r="W60" s="11">
-        <f t="shared" si="137"/>
+        <f t="shared" si="154"/>
         <v>106618</v>
       </c>
-      <c r="X60" s="151">
-        <f t="shared" ref="X60:AA60" si="138">SUM(X50:X59)</f>
+      <c r="X60" s="11">
+        <f t="shared" ref="X60:AA60" si="155">SUM(X50:X59)</f>
         <v>109226</v>
       </c>
-      <c r="Y60" s="14">
-        <f t="shared" si="138"/>
+      <c r="Y60" s="154">
+        <f t="shared" si="155"/>
         <v>112832</v>
       </c>
-      <c r="Z60" s="151">
-        <f t="shared" si="138"/>
+      <c r="Z60" s="14">
+        <f t="shared" si="155"/>
+        <v>119852</v>
+      </c>
+      <c r="AA60" s="11">
+        <f t="shared" si="155"/>
         <v>0</v>
       </c>
-      <c r="AA60" s="151">
-        <f t="shared" si="138"/>
+      <c r="AB60" s="11">
+        <f t="shared" ref="AB60" si="156">SUM(AB50:AB59)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10">
@@ -22185,7 +22383,7 @@
         <v>13897</v>
       </c>
       <c r="S61" s="10">
-        <f t="shared" ref="S61:S65" si="139">F61</f>
+        <f t="shared" ref="S61:S65" si="157">F61</f>
         <v>15255</v>
       </c>
       <c r="T61" s="10">
@@ -22198,21 +22396,24 @@
         <v>13937</v>
       </c>
       <c r="W61" s="10">
-        <f t="shared" ref="W61:W65" si="140">G61</f>
+        <f t="shared" ref="W61:W65" si="158">G61</f>
         <v>14431</v>
       </c>
-      <c r="X61" s="150">
+      <c r="X61" s="10">
         <v>14725</v>
       </c>
-      <c r="Y61" s="15">
+      <c r="Y61" s="153">
         <v>13056</v>
       </c>
-      <c r="Z61" s="150"/>
-      <c r="AA61" s="150"/>
-    </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z61" s="15">
+        <v>14654</v>
+      </c>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10">
@@ -22243,7 +22444,7 @@
         <v>6246</v>
       </c>
       <c r="S62" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>8205</v>
       </c>
       <c r="T62" s="10">
@@ -22256,21 +22457,24 @@
         <v>7636</v>
       </c>
       <c r="W62" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>9080</v>
       </c>
-      <c r="X62" s="150">
+      <c r="X62" s="10">
         <v>9243</v>
       </c>
-      <c r="Y62" s="15">
+      <c r="Y62" s="153">
         <v>9616</v>
       </c>
-      <c r="Z62" s="150"/>
-      <c r="AA62" s="150"/>
-    </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z62" s="15">
+        <v>10601</v>
+      </c>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10">
@@ -22299,7 +22503,7 @@
         <v>1928</v>
       </c>
       <c r="S63" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>1747</v>
       </c>
       <c r="T63" s="10">
@@ -22312,21 +22516,24 @@
         <v>2206</v>
       </c>
       <c r="W63" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>2864</v>
       </c>
-      <c r="X63" s="150">
+      <c r="X63" s="10">
         <v>3024</v>
       </c>
-      <c r="Y63" s="15">
+      <c r="Y63" s="153">
         <v>2793</v>
       </c>
-      <c r="Z63" s="150"/>
-      <c r="AA63" s="150"/>
-    </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z63" s="15">
+        <v>3031</v>
+      </c>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10">
@@ -22351,7 +22558,7 @@
         <v>1083</v>
       </c>
       <c r="S64" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>0</v>
       </c>
       <c r="T64" s="10">
@@ -22364,19 +22571,20 @@
         <v>894</v>
       </c>
       <c r="W64" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
-      <c r="X64" s="150">
+      <c r="X64" s="10">
         <v>0</v>
       </c>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="150"/>
-      <c r="AA64" s="150"/>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y64" s="153"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -22405,7 +22613,7 @@
         <v>1457</v>
       </c>
       <c r="S65" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>1502</v>
       </c>
       <c r="T65" s="10">
@@ -22418,21 +22626,24 @@
         <v>1967</v>
       </c>
       <c r="W65" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>2373</v>
       </c>
-      <c r="X65" s="150">
+      <c r="X65" s="10">
         <v>2461</v>
       </c>
-      <c r="Y65" s="15">
+      <c r="Y65" s="153">
         <v>2264</v>
       </c>
-      <c r="Z65" s="150"/>
-      <c r="AA65" s="150"/>
-    </row>
-    <row r="66" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z65" s="15">
+        <v>2291</v>
+      </c>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+    </row>
+    <row r="66" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="11">
         <f>SUM(C61:C65)</f>
@@ -22455,73 +22666,77 @@
         <v>28748</v>
       </c>
       <c r="L66" s="11">
-        <f t="shared" ref="L66:W66" si="141">SUM(L61:L65)</f>
+        <f t="shared" ref="L66:W66" si="159">SUM(L61:L65)</f>
         <v>0</v>
       </c>
       <c r="M66" s="11">
-        <f t="shared" si="141"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="N66" s="11">
-        <f t="shared" si="141"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="O66" s="11">
-        <f t="shared" si="141"/>
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
       <c r="P66" s="11">
-        <f t="shared" si="141"/>
+        <f t="shared" si="159"/>
         <v>21455</v>
       </c>
       <c r="Q66" s="11">
-        <f t="shared" si="141"/>
+        <f t="shared" si="159"/>
         <v>21821</v>
       </c>
       <c r="R66" s="11">
-        <f t="shared" si="141"/>
+        <f t="shared" si="159"/>
         <v>24611</v>
       </c>
       <c r="S66" s="11">
-        <f t="shared" si="141"/>
+        <f t="shared" si="159"/>
         <v>26709</v>
       </c>
       <c r="T66" s="11">
-        <f t="shared" si="141"/>
+        <f t="shared" si="159"/>
         <v>27436</v>
       </c>
       <c r="U66" s="11">
-        <f t="shared" si="141"/>
+        <f t="shared" si="159"/>
         <v>27592</v>
       </c>
       <c r="V66" s="11">
-        <f t="shared" si="141"/>
+        <f t="shared" si="159"/>
         <v>26640</v>
       </c>
       <c r="W66" s="11">
-        <f t="shared" si="141"/>
+        <f t="shared" si="159"/>
         <v>28748</v>
       </c>
-      <c r="X66" s="151">
-        <f t="shared" ref="X66:AA66" si="142">SUM(X61:X65)</f>
+      <c r="X66" s="11">
+        <f t="shared" ref="X66:AA66" si="160">SUM(X61:X65)</f>
         <v>29453</v>
       </c>
-      <c r="Y66" s="14">
-        <f t="shared" si="142"/>
+      <c r="Y66" s="154">
+        <f t="shared" si="160"/>
         <v>27729</v>
       </c>
-      <c r="Z66" s="151">
-        <f t="shared" si="142"/>
+      <c r="Z66" s="14">
+        <f t="shared" si="160"/>
+        <v>30577</v>
+      </c>
+      <c r="AA66" s="11">
+        <f t="shared" si="160"/>
         <v>0</v>
       </c>
-      <c r="AA66" s="151">
-        <f t="shared" si="142"/>
+      <c r="AB66" s="11">
+        <f t="shared" ref="AB66" si="161">SUM(AB61:AB65)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10">
@@ -22563,21 +22778,24 @@
         <v>2426</v>
       </c>
       <c r="W67" s="10">
-        <f t="shared" ref="W67:W69" si="143">G67</f>
+        <f t="shared" ref="W67:W69" si="162">G67</f>
         <v>2857</v>
       </c>
-      <c r="X67" s="150">
+      <c r="X67" s="10">
         <v>2899</v>
       </c>
-      <c r="Y67" s="15">
+      <c r="Y67" s="153">
         <v>5481</v>
       </c>
-      <c r="Z67" s="150"/>
-      <c r="AA67" s="150"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z67" s="15">
+        <v>5405</v>
+      </c>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10">
@@ -22606,7 +22824,7 @@
         <v>2265</v>
       </c>
       <c r="S68" s="10">
-        <f t="shared" ref="S68:S69" si="144">F68</f>
+        <f t="shared" ref="S68:S69" si="163">F68</f>
         <v>2804</v>
       </c>
       <c r="T68" s="10">
@@ -22619,21 +22837,24 @@
         <v>3059</v>
       </c>
       <c r="W68" s="10">
-        <f t="shared" si="143"/>
+        <f t="shared" si="162"/>
         <v>3251</v>
       </c>
-      <c r="X68" s="150">
+      <c r="X68" s="10">
         <v>3214</v>
       </c>
-      <c r="Y68" s="15">
+      <c r="Y68" s="153">
         <v>3357</v>
       </c>
-      <c r="Z68" s="150"/>
-      <c r="AA68" s="150"/>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z68" s="15">
+        <v>3350</v>
+      </c>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10">
@@ -22662,7 +22883,7 @@
         <v>4330</v>
       </c>
       <c r="S69" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="163"/>
         <v>5330</v>
       </c>
       <c r="T69" s="10">
@@ -22675,21 +22896,24 @@
         <v>7321</v>
       </c>
       <c r="W69" s="10">
-        <f t="shared" si="143"/>
+        <f t="shared" si="162"/>
         <v>8153</v>
       </c>
-      <c r="X69" s="150">
+      <c r="X69" s="10">
         <v>8480</v>
       </c>
-      <c r="Y69" s="15">
+      <c r="Y69" s="153">
         <v>9002</v>
       </c>
-      <c r="Z69" s="150"/>
-      <c r="AA69" s="150"/>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z69" s="15">
+        <v>9810</v>
+      </c>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70" s="11">
         <f>SUM(C66:C69)</f>
@@ -22712,73 +22936,77 @@
         <v>43009</v>
       </c>
       <c r="L70" s="11">
-        <f t="shared" ref="L70:W70" si="145">SUM(L66:L69)</f>
+        <f t="shared" ref="L70:W70" si="164">SUM(L66:L69)</f>
         <v>0</v>
       </c>
       <c r="M70" s="11">
-        <f t="shared" si="145"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="N70" s="11">
-        <f t="shared" si="145"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="O70" s="11">
-        <f t="shared" si="145"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="P70" s="11">
-        <f t="shared" si="145"/>
+        <f t="shared" si="164"/>
         <v>30632</v>
       </c>
       <c r="Q70" s="11">
-        <f t="shared" si="145"/>
+        <f t="shared" si="164"/>
         <v>30855</v>
       </c>
       <c r="R70" s="11">
-        <f t="shared" si="145"/>
+        <f t="shared" si="164"/>
         <v>33302</v>
       </c>
       <c r="S70" s="11">
-        <f t="shared" si="145"/>
+        <f t="shared" si="164"/>
         <v>36440</v>
       </c>
       <c r="T70" s="11">
-        <f t="shared" si="145"/>
+        <f t="shared" si="164"/>
         <v>37598</v>
       </c>
       <c r="U70" s="11">
-        <f t="shared" si="145"/>
+        <f t="shared" si="164"/>
         <v>38409</v>
       </c>
       <c r="V70" s="11">
-        <f t="shared" si="145"/>
+        <f t="shared" si="164"/>
         <v>39446</v>
       </c>
       <c r="W70" s="11">
-        <f t="shared" si="145"/>
+        <f t="shared" si="164"/>
         <v>43009</v>
       </c>
-      <c r="X70" s="151">
-        <f t="shared" ref="X70:AA70" si="146">SUM(X66:X69)</f>
+      <c r="X70" s="11">
+        <f t="shared" ref="X70:AA70" si="165">SUM(X66:X69)</f>
         <v>44046</v>
       </c>
-      <c r="Y70" s="14">
-        <f t="shared" si="146"/>
+      <c r="Y70" s="154">
+        <f t="shared" si="165"/>
         <v>45569</v>
       </c>
-      <c r="Z70" s="151">
-        <f t="shared" si="146"/>
+      <c r="Z70" s="14">
+        <f t="shared" si="165"/>
+        <v>49142</v>
+      </c>
+      <c r="AA70" s="11">
+        <f t="shared" si="165"/>
         <v>0</v>
       </c>
-      <c r="AA70" s="151">
-        <f t="shared" si="146"/>
+      <c r="AB70" s="11">
+        <f t="shared" ref="AB70" si="166">SUM(AB66:AB69)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10">
@@ -22798,75 +23026,79 @@
         <v>63609</v>
       </c>
       <c r="P71" s="10">
-        <f t="shared" ref="P71:W71" si="147">P60-P70</f>
+        <f t="shared" ref="P71:W71" si="167">P60-P70</f>
         <v>35406</v>
       </c>
       <c r="Q71" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="167"/>
         <v>37658</v>
       </c>
       <c r="R71" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="167"/>
         <v>41114</v>
       </c>
       <c r="S71" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="167"/>
         <v>45898</v>
       </c>
       <c r="T71" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="167"/>
         <v>49235</v>
       </c>
       <c r="U71" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="167"/>
         <v>52182</v>
       </c>
       <c r="V71" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="167"/>
         <v>54495</v>
       </c>
       <c r="W71" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="167"/>
         <v>63609</v>
       </c>
-      <c r="X71" s="150">
-        <f t="shared" ref="X71:AA71" si="148">X60-X70</f>
+      <c r="X71" s="10">
+        <f t="shared" ref="X71:AA71" si="168">X60-X70</f>
         <v>65180</v>
       </c>
-      <c r="Y71" s="15">
-        <f t="shared" si="148"/>
+      <c r="Y71" s="153">
+        <f t="shared" si="168"/>
         <v>67263</v>
       </c>
-      <c r="Z71" s="150">
-        <f t="shared" si="148"/>
+      <c r="Z71" s="15">
+        <f t="shared" si="168"/>
+        <v>70710</v>
+      </c>
+      <c r="AA71" s="10">
+        <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="AA71" s="150">
-        <f t="shared" si="148"/>
+      <c r="AB71" s="10">
+        <f t="shared" ref="AB71" si="169">AB60-AB70</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="52"/>
       <c r="D73" s="52"/>
       <c r="E73" s="52"/>
       <c r="F73" s="52"/>
       <c r="G73" s="53"/>
-      <c r="X73" s="156"/>
-      <c r="Y73" s="16"/>
-    </row>
-    <row r="91" spans="7:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y73" s="159"/>
+      <c r="Z73" s="16"/>
+    </row>
+    <row r="91" spans="7:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G91" s="41"/>
-      <c r="X91" s="157"/>
-      <c r="Y91" s="41"/>
-    </row>
-    <row r="92" spans="7:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y91" s="160"/>
+      <c r="Z91" s="41"/>
+    </row>
+    <row r="92" spans="7:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G92" s="16"/>
-      <c r="X92" s="156"/>
-      <c r="Y92" s="16"/>
+      <c r="Y92" s="159"/>
+      <c r="Z92" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -22893,7 +23125,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -22907,10 +23139,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22918,29 +23150,35 @@
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>42</v>
-      </c>
       <c r="F1" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2" s="10">
         <v>421371</v>
@@ -22960,10 +23198,13 @@
       <c r="G2" s="10">
         <v>386576</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="10">
+        <v>443668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="10">
         <v>19437</v>
@@ -22983,17 +23224,20 @@
       <c r="G3" s="10">
         <v>24255</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="10">
+        <v>26128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="11">
         <f>SUM(B2:B3)</f>
         <v>440808</v>
       </c>
       <c r="C4" s="11">
-        <f t="shared" ref="C4:G4" si="0">SUM(C2:C3)</f>
+        <f t="shared" ref="C4:I4" si="0">SUM(C2:C3)</f>
         <v>479700</v>
       </c>
       <c r="D4" s="11">
@@ -23012,8 +23256,16 @@
         <f t="shared" si="0"/>
         <v>410831</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="11">
+        <f t="shared" si="0"/>
+        <v>469796</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -23021,9 +23273,9 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="10">
         <v>412180</v>
@@ -23043,10 +23295,13 @@
       <c r="G6" s="10">
         <v>422405</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="10">
+        <v>439975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" s="10">
         <v>10695</v>
@@ -23066,17 +23321,20 @@
       <c r="G7" s="10">
         <v>21551</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="10">
+        <v>22915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="11">
         <f>SUM(B6:B7)</f>
         <v>422875</v>
       </c>
       <c r="C8" s="11">
-        <f t="shared" ref="C8:G8" si="1">SUM(C6:C7)</f>
+        <f t="shared" ref="C8:I8" si="1">SUM(C6:C7)</f>
         <v>466140</v>
       </c>
       <c r="D8" s="11">
@@ -23095,8 +23353,16 @@
         <f t="shared" si="1"/>
         <v>443956</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>462890</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -23104,9 +23370,9 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="10">
         <v>153988</v>
@@ -23126,10 +23392,13 @@
       <c r="G10" s="10">
         <v>171353</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="10">
+        <v>168867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" s="10">
         <v>15</v>
@@ -23149,8 +23418,11 @@
       <c r="G11" s="10">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -23158,9 +23430,9 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B13" s="10">
         <v>3889</v>
@@ -23180,8 +23452,11 @@
       <c r="G13" s="10">
         <v>9400</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="10">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -23189,9 +23464,9 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B15" s="10">
         <v>1000</v>
@@ -23211,10 +23486,13 @@
       <c r="G15" s="10">
         <v>1286</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="10">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B16" s="10">
         <v>1692</v>
@@ -23234,8 +23512,11 @@
       <c r="G16" s="10">
         <v>1896</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="10">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -23243,9 +23524,9 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18" s="10">
         <v>4947</v>
@@ -23265,10 +23546,13 @@
       <c r="G18" s="10">
         <v>6473</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="10">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" s="10">
         <v>45169</v>
@@ -23287,6 +23571,9 @@
       </c>
       <c r="G19" s="10">
         <v>59596</v>
+      </c>
+      <c r="H19" s="10">
+        <v>62421</v>
       </c>
     </row>
   </sheetData>
@@ -23317,13 +23604,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -23334,13 +23621,13 @@
         <v>147.05000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
         <v>54</v>
-      </c>
-      <c r="M2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -23354,7 +23641,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -23369,7 +23656,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -34536,25 +34823,25 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="139" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="141"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -34586,22 +34873,22 @@
         <v>4.1600977862982891E-2</v>
       </c>
       <c r="H3" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="J3" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="K3" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="L3" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="68" t="s">
+      <c r="M3" s="69" t="s">
         <v>100</v>
-      </c>
-      <c r="M3" s="69" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -35013,7 +35300,7 @@
       </c>
       <c r="H15" s="81"/>
       <c r="I15" s="82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J15" s="82">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
@@ -35057,10 +35344,10 @@
         <f t="shared" si="0"/>
         <v>-4.4228876275416606E-2</v>
       </c>
-      <c r="H17" s="142" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="143"/>
+      <c r="H17" s="145" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="146"/>
       <c r="M17" s="85"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -35074,8 +35361,8 @@
         <f t="shared" si="0"/>
         <v>-1.6076649689302891E-2</v>
       </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="145"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="148"/>
       <c r="M18" s="85"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -35090,7 +35377,7 @@
         <v>-3.7870098619329218E-3</v>
       </c>
       <c r="H19" s="86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I19" s="123">
         <f>AVERAGE(D:D)</f>
@@ -35110,7 +35397,7 @@
         <v>3.9616158786354161E-2</v>
       </c>
       <c r="H20" s="86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I20" s="123">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
@@ -35130,7 +35417,7 @@
         <v>2.0977238864654968E-2</v>
       </c>
       <c r="H21" s="86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I21" s="123">
         <f>MEDIAN(D:D)</f>
@@ -35150,7 +35437,7 @@
         <v>1.4355510907056779E-2</v>
       </c>
       <c r="H22" s="86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I22" s="123" t="e">
         <f>MODE(D:D)</f>
@@ -35170,7 +35457,7 @@
         <v>4.9082116315635194E-3</v>
       </c>
       <c r="H23" s="86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I23" s="123">
         <f>_xlfn.STDEV.S(D:D)</f>
@@ -35190,7 +35477,7 @@
         <v>9.1544419050857417E-2</v>
       </c>
       <c r="H24" s="86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I24" s="123">
         <f>_xlfn.VAR.S(D:D)</f>
@@ -35210,7 +35497,7 @@
         <v>-2.4140811197555512E-2</v>
       </c>
       <c r="H25" s="86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I25" s="124">
         <f>KURT(D:D)</f>
@@ -35230,7 +35517,7 @@
         <v>6.10709301340433E-2</v>
       </c>
       <c r="H26" s="86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I26" s="124">
         <f>SKEW(D:D)</f>
@@ -35250,7 +35537,7 @@
         <v>-2.212369399208225E-2</v>
       </c>
       <c r="H27" s="86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I27" s="123">
         <f>I29-I28</f>
@@ -35270,7 +35557,7 @@
         <v>-0.15582188108915818</v>
       </c>
       <c r="H28" s="86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" s="123">
         <f>MIN(D:D)</f>
@@ -35290,7 +35577,7 @@
         <v>-3.6118696641917136E-2</v>
       </c>
       <c r="H29" s="86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I29" s="123">
         <f>MAX(D:D)</f>
@@ -35310,7 +35597,7 @@
         <v>4.1203732550540551E-2</v>
       </c>
       <c r="H30" s="86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I30" s="124">
         <f>SUM(D:D)</f>
@@ -35330,7 +35617,7 @@
         <v>2.1806582370822669E-2</v>
       </c>
       <c r="H31" s="87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I31" s="64">
         <f>COUNT(D:D)</f>
@@ -35365,16 +35652,16 @@
       </c>
       <c r="H33" s="90"/>
       <c r="I33" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="J33" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="K33" s="91" t="s">
+      <c r="L33" s="92" t="s">
         <v>116</v>
-      </c>
-      <c r="L33" s="92" t="s">
-        <v>117</v>
       </c>
       <c r="M33" s="85"/>
     </row>
@@ -35390,7 +35677,7 @@
         <v>1.4244337256527073E-2</v>
       </c>
       <c r="H34" s="93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I34" s="79">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
@@ -35422,7 +35709,7 @@
         <v>2.6908081259199079E-2</v>
       </c>
       <c r="H35" s="93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I35" s="79">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
@@ -35454,7 +35741,7 @@
         <v>0.10719750551771545</v>
       </c>
       <c r="H36" s="94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I36" s="82">
         <v>0</v>
@@ -35503,22 +35790,22 @@
         <v>-4.4158224831961634E-2</v>
       </c>
       <c r="H38" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="I38" s="91" t="s">
+      <c r="J38" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="J38" s="91" t="s">
+      <c r="K38" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="K38" s="91" t="s">
+      <c r="L38" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="L38" s="91" t="s">
+      <c r="M38" s="92" t="s">
         <v>125</v>
-      </c>
-      <c r="M38" s="92" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -35648,14 +35935,14 @@
         <f t="shared" si="0"/>
         <v>4.83630841272642E-2</v>
       </c>
-      <c r="H43" s="146" t="s">
-        <v>127</v>
-      </c>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="148"/>
+      <c r="H43" s="149" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="151"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -36166,7 +36453,7 @@
         <v>-0.12311032843810266</v>
       </c>
       <c r="H60" s="112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I60" s="113">
         <v>-0.1</v>
@@ -36184,7 +36471,7 @@
         <v>4.6220437672175319E-3</v>
       </c>
       <c r="H61" s="114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I61" s="115">
         <v>-0.3</v>
@@ -36215,7 +36502,7 @@
         <v>5.8001925227294082E-2</v>
       </c>
       <c r="H63" s="112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I63" s="117">
         <v>169.44</v>
@@ -36233,7 +36520,7 @@
         <v>3.6372266267444164E-2</v>
       </c>
       <c r="H64" s="118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I64" s="119">
         <f>I63*(1-I60)</f>
@@ -36252,7 +36539,7 @@
         <v>6.7903330002360818E-2</v>
       </c>
       <c r="H65" s="114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I65" s="120">
         <f>I63*(1+I61)</f>
